--- a/public/preprocessing/@tatakujiyati.xlsx
+++ b/public/preprocessing/@tatakujiyati.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H100"/>
+  <dimension ref="A1:I101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,15 +456,20 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>tweet_tokens_alay</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>tweet_tokens_fdist</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>tweet_tokens_WSW</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>tweet_tokens_stemmed</t>
         </is>
@@ -475,34 +480,39 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>16545</v>
+        <v>27313</v>
       </c>
       <c r="C2" t="n">
-        <v>207</v>
+        <v>323</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>take care everyone terutama yang rumahnya dekat sungai kemungkinan hujan ekstrim lagi hari ini</t>
+          <t>rt husnil gembong ini modelannya ngomong aja dulu salah bodo amat berkalikali dibilang dp itu kategorinya mbr aturan mb</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['take', 'care', 'everyone', 'terutama', 'yang', 'rumahnya', 'dekat', 'sungai', 'kemungkinan', 'hujan', 'ekstrim', 'lagi', 'hari', 'ini']</t>
+          <t>['rt', 'husnil', 'gembong', 'ini', 'modelannya', 'ngomong', 'aja', 'dulu', 'salah', 'bodo', 'amat', 'berkalikali', 'dibilang', 'dp', 'itu', 'kategorinya', 'mbr', 'aturan', 'mb']</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
+          <t>['rt', 'husnil', 'gembong', 'ini', 'modelannya', 'berbicara', 'saja', 'dulu', 'salah', 'bodoh', 'amat', 'berkalikali', 'dibilang', 'uang, muka', 'itu', 'kategorinya', 'mbr', 'aturan', 'mb']</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['take', 'care', 'everyone', 'rumahnya', 'sungai', 'hujan', 'ekstrim']</t>
+          <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['take', 'care', 'everyone', 'rumah', 'sungai', 'hujan', 'ekstrim']</t>
+          <t>['husnil', 'gembong', 'modelannya', 'berbicara', 'salah', 'bodoh', 'berkalikali', 'dibilang', 'uang, muka', 'kategorinya', 'mbr', 'aturan', 'mb']</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>['husnil', 'gembong', 'model', 'bicara', 'salah', 'bodoh', 'berkalikali', 'bilang', 'uang muka', 'kategori', 'mbr', 'atur', 'mb']</t>
         </is>
       </c>
     </row>
@@ -511,34 +521,39 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>16546</v>
+        <v>27314</v>
       </c>
       <c r="C3" t="n">
-        <v>207</v>
+        <v>323</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>lvncar kalau ini dari sisi positifnya</t>
+          <t>rt simpul kemacetan mulai satu persatu diurai semoga bahagia warganya dan maju kotanya dapat terwujud</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['lvncar', 'kalau', 'ini', 'dari', 'sisi', 'positifnya']</t>
+          <t>['rt', 'simpul', 'kemacetan', 'mulai', 'satu', 'persatu', 'diurai', 'semoga', 'bahagia', 'warganya', 'dan', 'maju', 'kotanya', 'dapat', 'terwujud']</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['rt', 'simpul', 'kemacetan', 'mulai', 'satu', 'persatu', 'diurai', 'semoga', 'bahagia', 'warganya', 'dan', 'maju', 'kotanya', 'dapat', 'terwujud']</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['lvncar', 'sisi', 'positifnya']</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['lvncar', 'sisi', 'positif']</t>
+          <t>['simpul', 'kemacetan', 'persatu', 'diurai', 'semoga', 'bahagia', 'warganya', 'maju', 'kotanya', 'terwujud']</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>['simpul', 'macet', 'satu', 'urai', 'moga', 'bahagia', 'warga', 'maju', 'kota', 'wujud']</t>
         </is>
       </c>
     </row>
@@ -547,34 +562,39 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>16547</v>
+        <v>27315</v>
       </c>
       <c r="C4" t="n">
-        <v>207</v>
+        <v>323</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>orang jawa memang kadang begitu hehe iyo ning ora iyo</t>
+          <t>rt husnil ini lagi detik angkat pengamat yang asal ceplos juga gak dijelasin kalau kategori mbr berubah itu karena aturan dar</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['orang', 'jawa', 'memang', 'kadang', 'begitu', 'hehe', 'iyo', 'ning', 'ora', 'iyo']</t>
+          <t>['rt', 'husnil', 'ini', 'lagi', 'detik', 'angkat', 'pengamat', 'yang', 'asal', 'ceplos', 'juga', 'gak', 'dijelasin', 'kalau', 'kategori', 'mbr', 'berubah', 'itu', 'karena', 'aturan', 'dar']</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 9 samples and 10 outcomes&gt;</t>
+          <t>['rt', 'husnil', 'ini', 'lagi', 'detik', 'angkat', 'pengamat', 'yang', 'asal', 'ceplos', 'juga', 'tidak', 'dijelasin', 'kalau', 'kategori', 'mbr', 'berubah', 'itu', 'karena', 'aturan', 'dar']</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['orang', 'jawa', 'kadang', 'iyo', 'ning', 'ora', 'iyo']</t>
+          <t>&lt;FreqDist with 21 samples and 21 outcomes&gt;</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['orang', 'jawa', 'kadang', 'iyo', 'ning', 'ora', 'iyo']</t>
+          <t>['husnil', 'detik', 'angkat', 'pengamat', 'ceplos', 'dijelasin', 'kategori', 'mbr', 'berubah', 'aturan', 'dar']</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>['husnil', 'detik', 'angkat', 'amat', 'ceplos', 'dijelasin', 'kategori', 'mbr', 'ubah', 'atur', 'dar']</t>
         </is>
       </c>
     </row>
@@ -583,34 +603,39 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>16548</v>
+        <v>27316</v>
       </c>
       <c r="C5" t="n">
-        <v>207</v>
+        <v>323</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>orang jawa itu terkadang mengaku salah sekedar untuk menghindari perdebatan yo wis aku wae sing salah dah perd</t>
+          <t>rt untk bisnis ekspor bibit lobster uang sejumlah ini sangat kecil dulu ada kasus es kkp rek sd  kpk harus te</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['orang', 'jawa', 'itu', 'terkadang', 'mengaku', 'salah', 'sekedar', 'untuk', 'menghindari', 'perdebatan', 'yo', 'wis', 'aku', 'wae', 'sing', 'salah', 'dah', 'perd']</t>
+          <t>['rt', 'untk', 'bisnis', 'ekspor', 'bibit', 'lobster', 'uang', 'sejumlah', 'ini', 'sangat', 'kecil', 'dulu', 'ada', 'kasus', 'es', 'kkp', 'rek', 'sd', 'kpk', 'harus', 'te']</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
+          <t>['rt', 'untuk', 'bisnis', 'ekspor', 'bibit', 'lobster', 'uang', 'sejumlah', 'ini', 'sangat', 'kecil', 'dulu', 'ada', 'kasus', 'es', 'kkp', 'rek', 'sekolah, dasar', 'komisi, pemberantasan, korupsi', 'harus', 'te']</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['orang', 'jawa', 'terkadang', 'mengaku', 'salah', 'sekedar', 'menghindari', 'perdebatan', 'yo', 'wis', 'wae', 'sing', 'salah', 'dah', 'perd']</t>
+          <t>&lt;FreqDist with 21 samples and 21 outcomes&gt;</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['orang', 'jawa', 'terkadang', 'aku', 'salah', 'dar', 'hindar', 'debat', 'yo', 'wis', 'wae', 'sing', 'salah', 'dah', 'perd']</t>
+          <t>['bisnis', 'ekspor', 'bibit', 'lobster', 'uang', 'es', 'kkp', 'rek', 'sekolah, dasar', 'komisi, pemberantasan, korupsi', 'te']</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>['bisnis', 'ekspor', 'bibit', 'lobster', 'uang', 'es', 'kkp', 'rek', 'sekolah dasar', 'komisi berantas korupsi', 'te']</t>
         </is>
       </c>
     </row>
@@ -619,34 +644,39 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>16549</v>
+        <v>27317</v>
       </c>
       <c r="C6" t="n">
-        <v>207</v>
+        <v>323</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>rt pertama kali dalam sejarah banjir besar penanganan tuntas dlm waktu kurang dari jam gubernur</t>
+          <t>rt hasil kerja kolaborasi klub jurnalis investigasi soal pengadaan reagen covid ini penting dibaca mengungkap bagaimana pe</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['rt', 'pertama', 'kali', 'dalam', 'sejarah', 'banjir', 'besar', 'penanganan', 'tuntas', 'dlm', 'waktu', 'kurang', 'dari', 'jam', 'gubernur']</t>
+          <t>['rt', 'hasil', 'kerja', 'kolaborasi', 'klub', 'jurnalis', 'investigasi', 'soal', 'pengadaan', 'reagen', 'covid', 'ini', 'penting', 'dibaca', 'mengungkap', 'bagaimana', 'pe']</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>['rt', 'hasil', 'kerja', 'kolaborasi', 'klub', 'jurnalis', 'investigasi', 'soal', 'pengadaan', 'reagen', 'covid', 'ini', 'penting', 'dibaca', 'mengungkap', 'bagaimana', 'pe']</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['kali', 'sejarah', 'banjir', 'penanganan', 'tuntas', 'dlm', 'jam', 'gubernur']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['kali', 'sejarah', 'banjir', 'tangan', 'tuntas', 'dlm', 'jam', 'gubernur']</t>
+          <t>['hasil', 'kerja', 'kolaborasi', 'klub', 'jurnalis', 'investigasi', 'pengadaan', 'reagen', 'covid', 'dibaca', 'mengungkap', 'pe']</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>['hasil', 'kerja', 'kolaborasi', 'klub', 'jurnalis', 'investigasi', 'ada', 'reagen', 'covid', 'baca', 'ungkap', 'pe']</t>
         </is>
       </c>
     </row>
@@ -655,34 +685,39 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>16550</v>
+        <v>27318</v>
       </c>
       <c r="C7" t="n">
-        <v>207</v>
+        <v>323</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>rt raih beritasatu public leader awards anies persembahkan untuk jajaran penghargaan ini bukan untuk saya pribadi</t>
+          <t>rt konsep maju yg dimiliki pemprov dki memang selangkah didepan dan semakin melaju kedepan</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>['rt', 'raih', 'beritasatu', 'public', 'leader', 'awards', 'anies', 'persembahkan', 'untuk', 'jajaran', 'penghargaan', 'ini', 'bukan', 'untuk', 'saya', 'pribadi']</t>
+          <t>['rt', 'konsep', 'maju', 'yg', 'dimiliki', 'pemprov', 'dki', 'memang', 'selangkah', 'didepan', 'dan', 'semakin', 'melaju', 'kedepan']</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
+          <t>['rt', 'konsep', 'maju', 'yang', 'dimiliki', 'pemerintah, provinsi', 'daerah, khusus, ibukota', 'memang', 'selangkah', 'di, depan', 'dan', 'semakin', 'melaju', 'ke, depan']</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['raih', 'beritasatu', 'public', 'leader', 'awards', 'anies', 'persembahkan', 'jajaran', 'penghargaan', 'pribadi']</t>
+          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['raih', 'beritasatu', 'public', 'leader', 'awards', 'anies', 'sembah', 'jajar', 'harga', 'pribadi']</t>
+          <t>['konsep', 'maju', 'dimiliki', 'pemerintah, provinsi', 'daerah, khusus, ibukota', 'selangkah', 'di, depan', 'melaju', 'ke, depan']</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>['konsep', 'maju', 'milik', 'perintah provinsi', 'daerah khusus ibukota', 'selang', 'di depan', 'laju', 'ke depan']</t>
         </is>
       </c>
     </row>
@@ -691,34 +726,39 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>16551</v>
+        <v>27319</v>
       </c>
       <c r="C8" t="n">
-        <v>207</v>
+        <v>323</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>ujian berat bagi seorang pemimpin adalah apakah ia bisa bersikap adil termasuk yang menyangkut diri sendiri</t>
+          <t>yash pak banyak kewenangankewenangan pusat yg punya dampak pd jakarta nah kalau kewenangannya itu ada di dki</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>['ujian', 'berat', 'bagi', 'seorang', 'pemimpin', 'adalah', 'apakah', 'ia', 'bisa', 'bersikap', 'adil', 'termasuk', 'yang', 'menyangkut', 'diri', 'sendiri']</t>
+          <t>['yash', 'pak', 'banyak', 'kewenangankewenangan', 'pusat', 'yg', 'punya', 'dampak', 'pd', 'jakarta', 'nah', 'kalau', 'kewenangannya', 'itu', 'ada', 'di', 'dki']</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['yash', 'pak', 'banyak', 'kewenangankewenangan', 'pusat', 'yang', 'punya', 'dampak', 'pada', 'jakarta', 'nah', 'kalau', 'kewenangannya', 'itu', 'ada', 'di', 'daerah, khusus, ibukota']</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['ujian', 'berat', 'pemimpin', 'bersikap', 'adil']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['uji', 'berat', 'pimpin', 'sikap', 'adil']</t>
+          <t>['yash', 'kewenangankewenangan', 'pusat', 'dampak', 'jakarta', 'kewenangannya', 'daerah, khusus, ibukota']</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>['yash', 'kewenangankewenangan', 'pusat', 'dampak', 'jakarta', 'wenang', 'daerah khusus ibukota']</t>
         </is>
       </c>
     </row>
@@ -727,34 +767,39 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>16552</v>
+        <v>27320</v>
       </c>
       <c r="C9" t="n">
-        <v>207</v>
+        <v>323</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>patters kalau mau dilihat rw terdampak juga boleh di banjir amp rw terdampak juga leb</t>
+          <t xml:space="preserve">maksud dari pembangunan berkonsep tod ini agar warga kota nggak perlu naik mobil pribadi yg bikin macet kemana </t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>['patters', 'kalau', 'mau', 'dilihat', 'rw', 'terdampak', 'juga', 'boleh', 'di', 'banjir', 'amp', 'rw', 'terdampak', 'juga', 'leb']</t>
+          <t>['maksud', 'dari', 'pembangunan', 'berkonsep', 'tod', 'ini', 'agar', 'warga', 'kota', 'nggak', 'perlu', 'naik', 'mobil', 'pribadi', 'yg', 'bikin', 'macet', 'kemana']</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 15 outcomes&gt;</t>
+          <t>['maksud', 'dari', 'pembangunan', 'berkonsep', 'tod', 'ini', 'agar', 'warga', 'kota', 'enggak', 'perlu', 'naik', 'mobil', 'pribadi', 'yang', 'bikin', 'macet', 'kemana']</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['patters', 'rw', 'terdampak', 'banjir', 'rw', 'terdampak', 'leb']</t>
+          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['patters', 'rw', 'dampak', 'banjir', 'rw', 'dampak', 'leb']</t>
+          <t>['maksud', 'pembangunan', 'berkonsep', 'tod', 'warga', 'kota', 'mobil', 'pribadi', 'macet', 'kemana']</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>['maksud', 'bangun', 'konsep', 'tod', 'warga', 'kota', 'mobil', 'pribadi', 'macet', 'mana']</t>
         </is>
       </c>
     </row>
@@ -763,34 +808,39 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>16553</v>
+        <v>27321</v>
       </c>
       <c r="C10" t="n">
-        <v>207</v>
+        <v>323</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>keren ada ikan hias warna warni di selokan berair bening jalan lorong rt rw kelurahankoja jakarta uta</t>
+          <t xml:space="preserve">revitalisasi pasar senen dg konsep transit oriented development tod dimulai tod berfokus pada pembangunan di </t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>['keren', 'ada', 'ikan', 'hias', 'warna', 'warni', 'di', 'selokan', 'berair', 'bening', 'jalan', 'lorong', 'rt', 'rw', 'kelurahankoja', 'jakarta', 'uta']</t>
+          <t>['revitalisasi', 'pasar', 'senen', 'dg', 'konsep', 'transit', 'oriented', 'development', 'tod', 'dimulai', 'tod', 'berfokus', 'pada', 'pembangunan', 'di']</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['revitalisasi', 'pasar', 'senin', 'dengan', 'konsep', 'transit', 'oriented', 'development', 'tod', 'dimulai', 'tod', 'berfokus', 'pada', 'pembangunan', 'di']</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['keren', 'ikan', 'hias', 'warna', 'warni', 'selokan', 'berair', 'bening', 'jalan', 'lorong', 'rw', 'kelurahankoja', 'jakarta', 'uta']</t>
+          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['keren', 'ikan', 'hias', 'warna', 'warni', 'selokan', 'air', 'bening', 'jalan', 'lorong', 'rw', 'kelurahankoja', 'jakarta', 'uta']</t>
+          <t>['revitalisasi', 'pasar', 'senin', 'konsep', 'transit', 'oriented', 'development', 'tod', 'tod', 'berfokus', 'pembangunan']</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>['revitalisasi', 'pasar', 'senin', 'konsep', 'transit', 'oriented', 'development', 'tod', 'tod', 'fokus', 'bangun']</t>
         </is>
       </c>
     </row>
@@ -799,34 +849,39 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>16554</v>
+        <v>27322</v>
       </c>
       <c r="C11" t="n">
-        <v>207</v>
+        <v>323</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>rt arif putus asa dg data covid di indonesia kasus seolah kecil kematian harian capai rekor tetapi nggak yakin jg ini data kasu</t>
+          <t xml:space="preserve">rt jkt setelah hampir th mendampingi kampung akuarium dan melihat banyak buah yang dihasilkan bersama kini merasa berbahagia </t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>['rt', 'arif', 'putus', 'asa', 'dg', 'data', 'covid', 'di', 'indonesia', 'kasus', 'seolah', 'kecil', 'kematian', 'harian', 'capai', 'rekor', 'tetapi', 'nggak', 'yakin', 'jg', 'ini', 'data', 'kasu']</t>
+          <t>['rt', 'jkt', 'setelah', 'hampir', 'th', 'mendampingi', 'kampung', 'akuarium', 'dan', 'melihat', 'banyak', 'buah', 'yang', 'dihasilkan', 'bersama', 'kini', 'merasa', 'berbahagia']</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 22 samples and 23 outcomes&gt;</t>
+          <t>['rt', 'jakarta', 'setelah', 'hampir', 'tahun', 'mendampingi', 'kampung', 'akuarium', 'dan', 'melihat', 'banyak', 'buah', 'yang', 'dihasilkan', 'bersama', 'kini', 'merasa', 'berbahagia']</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['arif', 'putus', 'asa', 'data', 'covid', 'indonesia', 'kematian', 'harian', 'capai', 'rekor', 'nggak', 'jg', 'data', 'kasu']</t>
+          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['arif', 'putus', 'asa', 'data', 'covid', 'indonesia', 'mati', 'hari', 'capai', 'rekor', 'nggak', 'jg', 'data', 'kasu']</t>
+          <t>['jakarta', 'mendampingi', 'kampung', 'akuarium', 'buah', 'dihasilkan', 'berbahagia']</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>['jakarta', 'damping', 'kampung', 'akuarium', 'buah', 'hasil', 'bahagia']</t>
         </is>
       </c>
     </row>
@@ -835,34 +890,39 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>16555</v>
+        <v>27323</v>
       </c>
       <c r="C12" t="n">
-        <v>207</v>
+        <v>323</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>rt jkt sbg anak cengkareng rada lega saat dengar dr transjakarta bhw saat banjir akhir pekan lalu halte jembatan baru tdk jadi sh</t>
+          <t>naturalisasi waduk sunter selatan amp kkb cantiknya naturalisasi cara mengelola prasarana sumber daya air melalu</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>['rt', 'jkt', 'sbg', 'anak', 'cengkareng', 'rada', 'lega', 'saat', 'dengar', 'dr', 'transjakarta', 'bhw', 'saat', 'banjir', 'akhir', 'pekan', 'lalu', 'halte', 'jembatan', 'baru', 'tdk', 'jadi', 'sh']</t>
+          <t>['naturalisasi', 'waduk', 'sunter', 'selatan', 'amp', 'kkb', 'cantiknya', 'naturalisasi', 'cara', 'mengelola', 'prasarana', 'sumber', 'daya', 'air', 'melalu']</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 22 samples and 23 outcomes&gt;</t>
+          <t>['naturalisasi', 'waduk', 'sunter', 'selatan', 'amp', 'kkb', 'cantiknya', 'naturalisasi', 'cara', 'mengelola', 'prasarana', 'sumber', 'daya', 'air', 'melalu']</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['jkt', 'sbg', 'anak', 'cengkareng', 'rada', 'lega', 'dengar', 'dr', 'transjakarta', 'bhw', 'banjir', 'pekan', 'halte', 'jembatan', 'sh']</t>
+          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['jkt', 'sbg', 'anak', 'cengkareng', 'rada', 'lega', 'dengar', 'dr', 'transjakarta', 'bhw', 'banjir', 'pekan', 'halte', 'jembatan', 'sh']</t>
+          <t>['naturalisasi', 'waduk', 'sunter', 'selatan', 'kkb', 'cantiknya', 'naturalisasi', 'mengelola', 'prasarana', 'sumber', 'daya', 'air', 'melalu']</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>['naturalisasi', 'waduk', 'sunter', 'selatan', 'kkb', 'cantik', 'naturalisasi', 'kelola', 'prasarana', 'sumber', 'daya', 'air', 'lalu']</t>
         </is>
       </c>
     </row>
@@ -871,34 +931,39 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>16556</v>
+        <v>27324</v>
       </c>
       <c r="C13" t="n">
-        <v>207</v>
+        <v>323</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>rt alhamdulillah genangan dan banjir akibat hujan ekstrem pada sabtu dini hari telah tuntas ditangani sebuah kerj</t>
+          <t>rt dulu ruhut juga mancing pak sby untuk maju periode tapi beliau nga mau cukup kali saya nga mau menabrak uud tahun</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>['rt', 'alhamdulillah', 'genangan', 'dan', 'banjir', 'akibat', 'hujan', 'ekstrem', 'pada', 'sabtu', 'dini', 'hari', 'telah', 'tuntas', 'ditangani', 'sebuah', 'kerj']</t>
+          <t>['rt', 'dulu', 'ruhut', 'juga', 'mancing', 'pak', 'sby', 'untuk', 'maju', 'periode', 'tapi', 'beliau', 'nga', 'mau', 'cukup', 'kali', 'saya', 'nga', 'mau', 'menabrak', 'uud', 'tahun']</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['rt', 'dulu', 'ruhut', 'juga', 'mancing', 'pak', 'susilo, bambang, yudhoyono', 'untuk', 'maju', 'periode', 'tapi', 'beliau', 'tidak', 'mau', 'cukup', 'kali', 'saya', 'tidak', 'mau', 'menabrak', 'undang, undang, dasar', 'tahun']</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['alhamdulillah', 'genangan', 'banjir', 'akibat', 'hujan', 'ekstrem', 'sabtu', 'tuntas', 'ditangani', 'kerj']</t>
+          <t>&lt;FreqDist with 20 samples and 22 outcomes&gt;</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['alhamdulillah', 'genang', 'banjir', 'akibat', 'hujan', 'ekstrem', 'sabtu', 'tuntas', 'tangan', 'kerj']</t>
+          <t>['ruhut', 'mancing', 'susilo, bambang, yudhoyono', 'maju', 'periode', 'beliau', 'kali', 'menabrak', 'undang, undang, dasar']</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>['ruhut', 'mancing', 'susilo bambang yudhoyono', 'maju', 'periode', 'beliau', 'kali', 'tabrak', 'undang undang dasar']</t>
         </is>
       </c>
     </row>
@@ -907,34 +972,39 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>16557</v>
+        <v>27325</v>
       </c>
       <c r="C14" t="n">
-        <v>207</v>
+        <v>323</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>rt ini pernyataan langsung dari kepala bmkg dwi korita karnawari yang mengungkapkan bahwa pak sudah simula</t>
+          <t>ada aja yg nemu corat coret kayak gini</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>['rt', 'ini', 'pernyataan', 'langsung', 'dari', 'kepala', 'bmkg', 'dwi', 'korita', 'karnawari', 'yang', 'mengungkapkan', 'bahwa', 'pak', 'sudah', 'simula']</t>
+          <t>['ada', 'aja', 'yg', 'nemu', 'corat', 'coret', 'kayak', 'gini']</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['ada', 'saja', 'yang', 'menemukan', 'corat', 'coret', 'kayak', 'begini']</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['pernyataan', 'langsung', 'kepala', 'bmkg', 'dwi', 'korita', 'karnawari', 'simula']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['nyata', 'langsung', 'kepala', 'bmkg', 'dwi', 'korita', 'karnawari', 'simula']</t>
+          <t>['menemukan', 'corat', 'coret', 'kayak']</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>['temu', 'corat', 'coret', 'kayak']</t>
         </is>
       </c>
     </row>
@@ -943,34 +1013,39 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>16558</v>
+        <v>27326</v>
       </c>
       <c r="C15" t="n">
-        <v>207</v>
+        <v>323</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>rt teman tl barangkali ada info kerjaan area jakarta bekasi laki umur tahun pengalaman retail elektronik tahun</t>
+          <t>rt tadi siang mampir ke sebuah warung kopi bersama anakanak saat ngobrol dengan penjualnya dia cerita bahwa berasal dar</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>['rt', 'teman', 'tl', 'barangkali', 'ada', 'info', 'kerjaan', 'area', 'jakarta', 'bekasi', 'laki', 'umur', 'tahun', 'pengalaman', 'retail', 'elektronik', 'tahun']</t>
+          <t>['rt', 'tadi', 'siang', 'mampir', 'ke', 'sebuah', 'warung', 'kopi', 'bersama', 'anakanak', 'saat', 'ngobrol', 'dengan', 'penjualnya', 'dia', 'cerita', 'bahwa', 'berasal', 'dar']</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
+          <t>['rt', 'tadi', 'siang', 'mampir', 'ke', 'sebuah', 'warung', 'kopi', 'bersama', 'anakanak', 'saat', 'mengobrol', 'dengan', 'penjualnya', 'dia', 'cerita', 'bahwa', 'berasal', 'dar']</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['teman', 'tl', 'barangkali', 'info', 'kerjaan', 'area', 'jakarta', 'bekasi', 'laki', 'umur', 'pengalaman', 'retail', 'elektronik']</t>
+          <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['teman', 'tl', 'barangkali', 'info', 'kerja', 'area', 'jakarta', 'bekas', 'laki', 'umur', 'alam', 'retail', 'elektronik']</t>
+          <t>['siang', 'mampir', 'warung', 'kopi', 'anakanak', 'mengobrol', 'penjualnya', 'cerita', 'berasal', 'dar']</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>['siang', 'mampir', 'warung', 'kopi', 'anakanak', 'obrol', 'jual', 'cerita', 'asal', 'dar']</t>
         </is>
       </c>
     </row>
@@ -979,34 +1054,39 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>16559</v>
+        <v>27327</v>
       </c>
       <c r="C16" t="n">
-        <v>207</v>
+        <v>323</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>rt semoga segera diikuti banyak daerah lain keterbukaan informasi bagi banyak daerah masih isu yg serius mau sampai kapan</t>
+          <t>rt keren ya hasil kolaborasi warga dan ppsu kolong jembatan flyover cipinang di sulap menjadi kebun sayur mandiri ko</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>['rt', 'semoga', 'segera', 'diikuti', 'banyak', 'daerah', 'lain', 'keterbukaan', 'informasi', 'bagi', 'banyak', 'daerah', 'masih', 'isu', 'yg', 'serius', 'mau', 'sampai', 'kapan']</t>
+          <t>['rt', 'keren', 'ya', 'hasil', 'kolaborasi', 'warga', 'dan', 'ppsu', 'kolong', 'jembatan', 'flyover', 'cipinang', 'di', 'sulap', 'menjadi', 'kebun', 'sayur', 'mandiri', 'ko']</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 19 outcomes&gt;</t>
+          <t>['rt', 'keren', 'ya', 'hasil', 'kolaborasi', 'warga', 'dan', 'ppsu', 'kolong', 'jembatan', 'flyover', 'cipinang', 'di', 'sulap', 'menjadi', 'kebun', 'sayur', 'mandiri', 'kok']</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['semoga', 'diikuti', 'daerah', 'keterbukaan', 'informasi', 'daerah', 'isu', 'serius']</t>
+          <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['moga', 'ikut', 'daerah', 'buka', 'informasi', 'daerah', 'isu', 'serius']</t>
+          <t>['keren', 'hasil', 'kolaborasi', 'warga', 'ppsu', 'kolong', 'jembatan', 'flyover', 'cipinang', 'sulap', 'kebun', 'sayur', 'mandiri']</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>['keren', 'hasil', 'kolaborasi', 'warga', 'ppsu', 'kolong', 'jembatan', 'flyover', 'cipinang', 'sulap', 'kebun', 'sayur', 'mandiri']</t>
         </is>
       </c>
     </row>
@@ -1015,34 +1095,39 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>16560</v>
+        <v>27328</v>
       </c>
       <c r="C17" t="n">
-        <v>207</v>
+        <v>323</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>rt semoga ada media yg menggali soal perbandingan data banjir dki jkt ini id juga boleh ikut kritisi secara datanya ada le</t>
+          <t>tetap waspada musim hujan belum selesai banjir</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>['rt', 'semoga', 'ada', 'media', 'yg', 'menggali', 'soal', 'perbandingan', 'data', 'banjir', 'dki', 'jkt', 'ini', 'id', 'juga', 'boleh', 'ikut', 'kritisi', 'secara', 'datanya', 'ada', 'le']</t>
+          <t>['tetap', 'waspada', 'musim', 'hujan', 'belum', 'selesai', 'banjir']</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 21 samples and 22 outcomes&gt;</t>
+          <t>['tetap', 'waspada', 'musim', 'hujan', 'belum', 'selesai', 'banjir']</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>['semoga', 'media', 'menggali', 'perbandingan', 'data', 'banjir', 'dki', 'jkt', 'id', 'kritisi', 'datanya', 'le']</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>['moga', 'media', 'gali', 'banding', 'data', 'banjir', 'dki', 'jkt', 'id', 'kritisi', 'data', 'le']</t>
+          <t>['waspada', 'musim', 'hujan', 'selesai', 'banjir']</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>['waspada', 'musim', 'hujan', 'selesai', 'banjir']</t>
         </is>
       </c>
     </row>
@@ -1051,34 +1136,39 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>16561</v>
+        <v>27329</v>
       </c>
       <c r="C18" t="n">
-        <v>207</v>
+        <v>323</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>rt iya mbak saya ngomentarin orang yang nyebarin gambar itu mereka keliru tapi direproduksi terus saya lih</t>
+          <t>keputusan bagus gerindra wacana periode adalah pengkhianatan pd perjuangan reformasi sebab kekuasaan yg terlalu</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>['rt', 'iya', 'mbak', 'saya', 'ngomentarin', 'orang', 'yang', 'nyebarin', 'gambar', 'itu', 'mereka', 'keliru', 'tapi', 'direproduksi', 'terus', 'saya', 'lih']</t>
+          <t>['keputusan', 'bagus', 'gerindra', 'wacana', 'periode', 'adalah', 'pengkhianatan', 'pd', 'perjuangan', 'reformasi', 'sebab', 'kekuasaan', 'yg', 'terlalu']</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
+          <t>['keputusan', 'bagus', 'gerindra', 'wacana', 'periode', 'adalah', 'pengkhianatan', 'pada', 'perjuangan', 'reformasi', 'sebab', 'kekuasaan', 'yang', 'terlalu']</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>['iya', 'mbak', 'ngomentarin', 'orang', 'nyebarin', 'gambar', 'keliru', 'direproduksi', 'lih']</t>
+          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>['iya', 'mbak', 'ngomentarin', 'orang', 'nyebarin', 'gambar', 'keliru', 'reproduksi', 'lih']</t>
+          <t>['keputusan', 'bagus', 'gerindra', 'wacana', 'periode', 'pengkhianatan', 'perjuangan', 'reformasi', 'kekuasaan']</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>['putus', 'bagus', 'gerindra', 'wacana', 'periode', 'khianat', 'juang', 'reformasi', 'kuasa']</t>
         </is>
       </c>
     </row>
@@ -1087,34 +1177,39 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>16562</v>
+        <v>27330</v>
       </c>
       <c r="C19" t="n">
-        <v>207</v>
+        <v>323</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>rt jkt hingga tahun pemprov dki tlh menerbitkan sippt surat ijin penunjukkan penggunaan tanah dengan total luas</t>
+          <t>rt selamat menjalankan hari raya nyepi bagi segenap umat hindu yang ada di ibu kota semoga kita semua mampu mengelola semu</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>['rt', 'jkt', 'hingga', 'tahun', 'pemprov', 'dki', 'tlh', 'menerbitkan', 'sippt', 'surat', 'ijin', 'penunjukkan', 'penggunaan', 'tanah', 'dengan', 'total', 'luas']</t>
+          <t>['rt', 'selamat', 'menjalankan', 'hari', 'raya', 'nyepi', 'bagi', 'segenap', 'umat', 'hindu', 'yang', 'ada', 'di', 'ibu', 'kota', 'semoga', 'kita', 'semua', 'mampu', 'mengelola', 'semu']</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['rt', 'selamat', 'menjalankan', 'hari', 'raya', 'nyepi', 'bagi', 'segenap', 'umat', 'hindu', 'yang', 'ada', 'di', 'ibu', 'kota', 'semoga', 'kita', 'semua', 'mampu', 'mengelola', 'semu']</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>['jkt', 'pemprov', 'dki', 'tlh', 'menerbitkan', 'sippt', 'surat', 'ijin', 'penunjukkan', 'penggunaan', 'tanah', 'total', 'luas']</t>
+          <t>&lt;FreqDist with 21 samples and 21 outcomes&gt;</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>['jkt', 'pemprov', 'dki', 'tlh', 'terbit', 'sippt', 'surat', 'ijin', 'tunjuk', 'guna', 'tanah', 'total', 'luas']</t>
+          <t>['selamat', 'menjalankan', 'raya', 'nyepi', 'segenap', 'umat', 'hindu', 'kota', 'semoga', 'mengelola', 'semu']</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>['selamat', 'jalan', 'raya', 'nyepi', 'segenap', 'umat', 'hindu', 'kota', 'moga', 'kelola', 'semu']</t>
         </is>
       </c>
     </row>
@@ -1123,34 +1218,39 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>16563</v>
+        <v>27331</v>
       </c>
       <c r="C20" t="n">
-        <v>207</v>
+        <v>323</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>bukan data setahun cek saja di data pemprov dki tsb kan tertulis ada tanggalnya semua dus data pad</t>
+          <t>rt dirut sarana jaya tersangka kpk anies ingin semua transparan dan tuntas</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>['bukan', 'data', 'setahun', 'cek', 'saja', 'di', 'data', 'pemprov', 'dki', 'tsb', 'kan', 'tertulis', 'ada', 'tanggalnya', 'semua', 'dus', 'data', 'pad']</t>
+          <t>['rt', 'dirut', 'sarana', 'jaya', 'tersangka', 'kpk', 'anies', 'ingin', 'semua', 'transparan', 'dan', 'tuntas']</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 18 outcomes&gt;</t>
+          <t>['rt', 'direktur, utama', 'sarana', 'jaya', 'tersangka', 'komisi, pemberantasan, korupsi', 'anies', 'ingin', 'semua', 'transparan', 'dan', 'tuntas']</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>['data', 'setahun', 'cek', 'data', 'pemprov', 'dki', 'tsb', 'tertulis', 'tanggalnya', 'dus', 'data', 'pad']</t>
+          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>['data', 'tahun', 'cek', 'data', 'pemprov', 'dki', 'tsb', 'tulis', 'tanggal', 'dus', 'data', 'pad']</t>
+          <t>['direktur, utama', 'sarana', 'jaya', 'tersangka', 'komisi, pemberantasan, korupsi', 'anies', 'transparan', 'tuntas']</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>['direktur utama', 'sarana', 'jaya', 'sangka', 'komisi berantas korupsi', 'anies', 'transparan', 'tuntas']</t>
         </is>
       </c>
     </row>
@@ -1159,34 +1259,39 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>16564</v>
+        <v>27332</v>
       </c>
       <c r="C21" t="n">
-        <v>207</v>
+        <v>323</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>lihat data lengkapnya di sini</t>
+          <t>rt tahu nggak penataan kawasan stasiun terpadu tahap selanjutnya saat ini tengah dikerjakan lho pada stasiun yaitu gondan</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>['lihat', 'data', 'lengkapnya', 'di', 'sini']</t>
+          <t>['rt', 'tahu', 'nggak', 'penataan', 'kawasan', 'stasiun', 'terpadu', 'tahap', 'selanjutnya', 'saat', 'ini', 'tengah', 'dikerjakan', 'lho', 'pada', 'stasiun', 'yaitu', 'gondan']</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['rt', 'tahu', 'enggak', 'penataan', 'kawasan', 'stasiun', 'terpadu', 'tahap', 'selanjutnya', 'saat', 'ini', 'tengah', 'dikerjakan', 'lo', 'pada', 'stasiun', 'yaitu', 'gondan']</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>['lihat', 'data', 'lengkapnya']</t>
+          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>['lihat', 'data', 'lengkap']</t>
+          <t>['penataan', 'kawasan', 'stasiun', 'terpadu', 'tahap', 'lo', 'stasiun', 'gondan']</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>['tata', 'kawasan', 'stasiun', 'padu', 'tahap', 'lo', 'stasiun', 'gondan']</t>
         </is>
       </c>
     </row>
@@ -1195,34 +1300,39 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>16565</v>
+        <v>27333</v>
       </c>
       <c r="C22" t="n">
-        <v>207</v>
+        <v>323</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>tuduhan sembunyikan data th amp krn alasan juml pengungsi kecil ini konyol lihat dong curah hujannya th</t>
+          <t>rt dear jika anda tanya semua orang sedunia bahkan di as sekali pun tak ada yang lihat yuri gagarin sebagai</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>['tuduhan', 'sembunyikan', 'data', 'th', 'amp', 'krn', 'alasan', 'juml', 'pengungsi', 'kecil', 'ini', 'konyol', 'lihat', 'dong', 'curah', 'hujannya', 'th']</t>
+          <t>['rt', 'dear', 'jika', 'anda', 'tanya', 'semua', 'orang', 'sedunia', 'bahkan', 'di', 'as', 'sekali', 'pun', 'tak', 'ada', 'yang', 'lihat', 'yuri', 'gagarin', 'sebagai']</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
+          <t>['rt', 'dear', 'jika', 'anda', 'tanya', 'semua', 'orang', 'sedunia', 'bahkan', 'di', 'as', 'sekali', 'pun', 'tak', 'ada', 'yang', 'lihat', 'yuri', 'gagarin', 'sebagai']</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>['tuduhan', 'sembunyikan', 'data', 'th', 'alasan', 'juml', 'pengungsi', 'konyol', 'lihat', 'curah', 'hujannya', 'th']</t>
+          <t>&lt;FreqDist with 20 samples and 20 outcomes&gt;</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>['tuduh', 'sembunyi', 'data', 'th', 'alas', 'juml', 'ungsi', 'konyol', 'lihat', 'curah', 'hujan', 'th']</t>
+          <t>['dear', 'orang', 'sedunia', 'as', 'lihat', 'yuri', 'gagarin']</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>['dear', 'orang', 'dunia', 'as', 'lihat', 'yuri', 'gagarin']</t>
         </is>
       </c>
     </row>
@@ -1231,34 +1341,39 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>16566</v>
+        <v>27334</v>
       </c>
       <c r="C23" t="n">
-        <v>207</v>
+        <v>323</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>rt alhamdulillah genangan air berhasil dikeringkan banyak titik banjir yg biasanya perlu hari untuk surut skrg kurang</t>
+          <t>rt kabar baik dari igtemantamanjkt mulai tanggal maret sebanyak taman kota taman margasatwa ragunan</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>['rt', 'alhamdulillah', 'genangan', 'air', 'berhasil', 'dikeringkan', 'banyak', 'titik', 'banjir', 'yg', 'biasanya', 'perlu', 'hari', 'untuk', 'surut', 'skrg', 'kurang']</t>
+          <t>['rt', 'kabar', 'baik', 'dari', 'igtemantamanjkt', 'mulai', 'tanggal', 'maret', 'sebanyak', 'taman', 'kota', 'taman', 'margasatwa', 'ragunan']</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['rt', 'kabar', 'baik', 'dari', 'igtemantamanjkt', 'mulai', 'tanggal', 'maret', 'sebanyak', 'taman', 'kota', 'taman', 'margasatwa', 'ragunan']</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>['alhamdulillah', 'genangan', 'air', 'berhasil', 'dikeringkan', 'titik', 'banjir', 'surut', 'skrg']</t>
+          <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>['alhamdulillah', 'genang', 'air', 'hasil', 'kering', 'titik', 'banjir', 'surut', 'skrg']</t>
+          <t>['kabar', 'igtemantamanjkt', 'tanggal', 'maret', 'taman', 'kota', 'taman', 'margasatwa', 'ragunan']</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>['kabar', 'igtemantamanjkt', 'tanggal', 'maret', 'taman', 'kota', 'taman', 'margasatwa', 'ragunan']</t>
         </is>
       </c>
     </row>
@@ -1267,34 +1382,39 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>16567</v>
+        <v>27335</v>
       </c>
       <c r="C24" t="n">
-        <v>207</v>
+        <v>323</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>rt jkt membangun sumur resapan adalah kewajiban yg disertakan saat pemberian imb berarti seharusnya mereka sdh menyertakan pembiay</t>
+          <t>semangat pak dewan</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>['rt', 'jkt', 'membangun', 'sumur', 'resapan', 'adalah', 'kewajiban', 'yg', 'disertakan', 'saat', 'pemberian', 'imb', 'berarti', 'seharusnya', 'mereka', 'sdh', 'menyertakan', 'pembiay']</t>
+          <t>['semangat', 'pak', 'dewan']</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
+          <t>['semangat', 'pak', 'dewan']</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>['jkt', 'membangun', 'sumur', 'resapan', 'kewajiban', 'disertakan', 'pemberian', 'imb', 'menyertakan', 'pembiay']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>['jkt', 'bangun', 'sumur', 'resap', 'wajib', 'serta', 'beri', 'imb', 'serta', 'pembiay']</t>
+          <t>['semangat', 'dewan']</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>['semangat', 'dewan']</t>
         </is>
       </c>
     </row>
@@ -1303,30 +1423,39 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>16568</v>
+        <v>27336</v>
       </c>
       <c r="C25" t="n">
-        <v>207</v>
-      </c>
-      <c r="D25" t="inlineStr"/>
+        <v>323</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>selamat pemprov melalui dinas penanaman modal dan pelayanan terpadu satu pintu berhasil mendapat pengh</t>
+        </is>
+      </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['selamat', 'pemprov', 'melalui', 'dinas', 'penanaman', 'modal', 'dan', 'pelayanan', 'terpadu', 'satu', 'pintu', 'berhasil', 'mendapat', 'pengh']</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+          <t>['selamat', 'pemerintah, provinsi', 'melalui', 'dinas', 'penanaman', 'modal', 'dan', 'pelayanan', 'terpadu', 'satu', 'pintu', 'berhasil', 'mendapat', 'pengh']</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['selamat', 'pemerintah, provinsi', 'dinas', 'penanaman', 'modal', 'pelayanan', 'terpadu', 'pintu', 'berhasil', 'pengh']</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>['selamat', 'perintah provinsi', 'dinas', 'tanam', 'modal', 'layan', 'padu', 'pintu', 'hasil', 'pengh']</t>
         </is>
       </c>
     </row>
@@ -1335,34 +1464,39 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>16569</v>
+        <v>27337</v>
       </c>
       <c r="C26" t="n">
-        <v>207</v>
+        <v>323</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>oke demikian sj intinya dki transparan data tiap tahun dipublish tak ada yg disembunyikan kalau mau memb</t>
+          <t>yuk ikut merawat kota kita laporkan lewat jaki atau kanal pengaduan lainnya jika melihat masalah kota yang kit</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>['oke', 'demikian', 'sj', 'intinya', 'dki', 'transparan', 'data', 'tiap', 'tahun', 'dipublish', 'tak', 'ada', 'yg', 'disembunyikan', 'kalau', 'mau', 'memb']</t>
+          <t>['yuk', 'ikut', 'merawat', 'kota', 'kita', 'laporkan', 'lewat', 'jaki', 'atau', 'kanal', 'pengaduan', 'lainnya', 'jika', 'melihat', 'masalah', 'kota', 'yang', 'kit']</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['yuk', 'ikut', 'merawat', 'kota', 'kita', 'laporkan', 'lewat', 'jaki', 'atau', 'kanal', 'pengaduan', 'lainnya', 'jika', 'melihat', 'masalah', 'kota', 'yang', 'kit']</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>['oke', 'sj', 'intinya', 'dki', 'transparan', 'data', 'dipublish', 'disembunyikan', 'memb']</t>
+          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>['oke', 'sj', 'inti', 'dki', 'transparan', 'data', 'dipublish', 'sembunyi', 'memb']</t>
+          <t>['yuk', 'merawat', 'kota', 'laporkan', 'jaki', 'kanal', 'pengaduan', 'kota', 'kit']</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>['yuk', 'rawat', 'kota', 'lapor', 'jaki', 'kanal', 'adu', 'kota', 'kit']</t>
         </is>
       </c>
     </row>
@@ -1371,34 +1505,39 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>16570</v>
+        <v>27338</v>
       </c>
       <c r="C27" t="n">
-        <v>207</v>
+        <v>323</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>ukurannya mm hari ada keteranannya di teks kalau di tabel tak terlihat maaf karena kurang ditarik ke bawah selnya</t>
+          <t>respon cepat pemprov from this to this</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>['ukurannya', 'mm', 'hari', 'ada', 'keteranannya', 'di', 'teks', 'kalau', 'di', 'tabel', 'tak', 'terlihat', 'maaf', 'karena', 'kurang', 'ditarik', 'ke', 'bawah', 'selnya']</t>
+          <t>['respon', 'cepat', 'pemprov', 'from', 'this', 'to', 'this']</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
+          <t>['respon', 'cepat', 'pemerintah, provinsi', 'from', 'this', 'to', 'this']</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>['ukurannya', 'mm', 'keteranannya', 'teks', 'tabel', 'maaf', 'ditarik', 'selnya']</t>
+          <t>&lt;FreqDist with 6 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>['ukur', 'mm', 'teran', 'teks', 'tabel', 'maaf', 'tarik', 'sel']</t>
+          <t>['respon', 'cepat', 'pemerintah, provinsi', 'from', 'this', 'to', 'this']</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>['respon', 'cepat', 'perintah provinsi', 'from', 'this', 'to', 'this']</t>
         </is>
       </c>
     </row>
@@ -1407,34 +1546,39 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>16571</v>
+        <v>27339</v>
       </c>
       <c r="C28" t="n">
-        <v>207</v>
+        <v>323</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>apa yg dilakukan jajaran pemprov dki di bawah anies shg banjir lbh terkendali ada upaya optimalisasi sarana pr</t>
+          <t>rt horeeada wifi gratis di stasiun mrt</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>['apa', 'yg', 'dilakukan', 'jajaran', 'pemprov', 'dki', 'di', 'bawah', 'anies', 'shg', 'banjir', 'lbh', 'terkendali', 'ada', 'upaya', 'optimalisasi', 'sarana', 'pr']</t>
+          <t>['rt', 'horeeada', 'wifi', 'gratis', 'di', 'stasiun', 'mrt']</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
+          <t>['rt', 'horeeada', 'wifi', 'gratis', 'di', 'stasiun', 'mrt']</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>['jajaran', 'pemprov', 'dki', 'anies', 'shg', 'banjir', 'lbh', 'terkendali', 'upaya', 'optimalisasi', 'sarana', 'pr']</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>['jajar', 'pemprov', 'dki', 'anies', 'shg', 'banjir', 'lbh', 'kendali', 'upaya', 'optimalisasi', 'sarana', 'pr']</t>
+          <t>['horeeada', 'wifi', 'gratis', 'stasiun', 'mrt']</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>['horeeada', 'wifi', 'gratis', 'stasiun', 'mrt']</t>
         </is>
       </c>
     </row>
@@ -1443,34 +1587,39 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>16572</v>
+        <v>27340</v>
       </c>
       <c r="C29" t="n">
-        <v>207</v>
+        <v>323</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t xml:space="preserve">mas tomy ternyata pemprov dki telah </t>
+          <t>th saya juga sempat bawa rombongan teman dari myanmar yg sebagian besarnya beragama buddha berkunjung ke</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>['mas', 'tomy', 'ternyata', 'pemprov', 'dki', 'telah']</t>
+          <t>['th', 'saya', 'juga', 'sempat', 'bawa', 'rombongan', 'teman', 'dari', 'myanmar', 'yg', 'sebagian', 'besarnya', 'beragama', 'buddha', 'berkunjung', 'ke']</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['tahun', 'saya', 'juga', 'sempat', 'bawa', 'rombongan', 'teman', 'dari', 'myanmar', 'yang', 'sebagian', 'besarnya', 'beragama', 'buddha', 'berkunjung', 'ke']</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>['mas', 'tomy', 'pemprov', 'dki']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>['mas', 'tomy', 'pemprov', 'dki']</t>
+          <t>['bawa', 'rombongan', 'teman', 'myanmar', 'besarnya', 'beragama', 'buddha', 'berkunjung']</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>['bawa', 'rombong', 'teman', 'myanmar', 'besar', 'agama', 'buddha', 'kunjung']</t>
         </is>
       </c>
     </row>
@@ -1479,34 +1628,39 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>16573</v>
+        <v>27341</v>
       </c>
       <c r="C30" t="n">
-        <v>207</v>
+        <v>323</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>ternyata pemprov dki telah memiliki data by year di portal pantau banjir berikut penjelasan saya beserta link port</t>
+          <t>wah bukan perangkat desa yg baik</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>['ternyata', 'pemprov', 'dki', 'telah', 'memiliki', 'data', 'by', 'year', 'di', 'portal', 'pantau', 'banjir', 'berikut', 'penjelasan', 'saya', 'beserta', 'link', 'port']</t>
+          <t>['wah', 'bukan', 'perangkat', 'desa', 'yg', 'baik']</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
+          <t>['wah', 'bukan', 'perangkat', 'desa', 'yang', 'baik']</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>['pemprov', 'dki', 'memiliki', 'data', 'by', 'year', 'portal', 'pantau', 'banjir', 'penjelasan', 'beserta', 'link', 'port']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>['pemprov', 'dki', 'milik', 'data', 'by', 'year', 'portal', 'pantau', 'banjir', 'jelas', 'serta', 'link', 'port']</t>
+          <t>['perangkat', 'desa']</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>['perangkat', 'desa']</t>
         </is>
       </c>
     </row>
@@ -1515,34 +1669,39 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>16574</v>
+        <v>27342</v>
       </c>
       <c r="C31" t="n">
-        <v>207</v>
+        <v>323</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t xml:space="preserve">th ini curah hujan cukup ekstrim mm hr jika dibandingkan dg th yg curah hujan tertinggi </t>
+          <t>rt well spent morning discovering new bicycling infrastructure in  hoping see more amp more peo</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>['th', 'ini', 'curah', 'hujan', 'cukup', 'ekstrim', 'mm', 'hr', 'jika', 'dibandingkan', 'dg', 'th', 'yg', 'curah', 'hujan', 'tertinggi']</t>
+          <t>['rt', 'well', 'spent', 'morning', 'discovering', 'new', 'bicycling', 'infrastructure', 'in', 'hoping', 'see', 'more', 'amp', 'more', 'peo']</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 16 outcomes&gt;</t>
+          <t>['rt', 'well', 'spent', 'pagi', 'discovering', 'new', 'bicycling', 'infrastructure', 'in', 'hoping', 'see', 'more', 'amp', 'more', 'peo']</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>['th', 'curah', 'hujan', 'ekstrim', 'mm', 'hr', 'dibandingkan', 'th', 'curah', 'hujan', 'tertinggi']</t>
+          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>['th', 'curah', 'hujan', 'ekstrim', 'mm', 'hr', 'banding', 'th', 'curah', 'hujan', 'tinggi']</t>
+          <t>['well', 'spent', 'pagi', 'discovering', 'new', 'bicycling', 'infrastructure', 'in', 'hoping', 'see', 'more', 'more', 'peo']</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>['well', 'spent', 'pagi', 'discovering', 'new', 'bicycling', 'infrastructure', 'in', 'hoping', 'see', 'more', 'more', 'peo']</t>
         </is>
       </c>
     </row>
@@ -1551,34 +1710,39 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>16575</v>
+        <v>27343</v>
       </c>
       <c r="C32" t="n">
-        <v>207</v>
+        <v>323</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t xml:space="preserve">tahun dg curah hujan lebih rendah dari pada th tetapi wilayah tergenang lebih luas dan banjir baru </t>
+          <t>bukan golf tapi sepeda yg jadi sarana silaturahmi gubernur jakarta anies baswedan dg para duta besar negara sahaba</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>['tahun', 'dg', 'curah', 'hujan', 'lebih', 'rendah', 'dari', 'pada', 'th', 'tetapi', 'wilayah', 'tergenang', 'lebih', 'luas', 'dan', 'banjir', 'baru']</t>
+          <t>['bukan', 'golf', 'tapi', 'sepeda', 'yg', 'jadi', 'sarana', 'silaturahmi', 'gubernur', 'jakarta', 'anies', 'baswedan', 'dg', 'para', 'duta', 'besar', 'negara', 'sahaba']</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
+          <t>['bukan', 'golf', 'tapi', 'sepeda', 'yang', 'jadi', 'sarana', 'silaturahmi', 'gubernur', 'jakarta', 'anies', 'baswedan', 'dengan', 'para', 'duta', 'besar', 'negara', 'sahaba']</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>['curah', 'hujan', 'rendah', 'th', 'wilayah', 'tergenang', 'luas', 'banjir']</t>
+          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>['curah', 'hujan', 'rendah', 'th', 'wilayah', 'genang', 'luas', 'banjir']</t>
+          <t>['golf', 'sepeda', 'sarana', 'silaturahmi', 'gubernur', 'jakarta', 'anies', 'baswedan', 'duta', 'negara', 'sahaba']</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>['golf', 'sepeda', 'sarana', 'silaturahmi', 'gubernur', 'jakarta', 'anies', 'baswedan', 'duta', 'negara', 'sahaba']</t>
         </is>
       </c>
     </row>
@@ -1587,34 +1751,39 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>16576</v>
+        <v>27344</v>
       </c>
       <c r="C33" t="n">
-        <v>207</v>
+        <v>323</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>melihat data kita bisa tahu ada perbaikan dlm penanggulangan banjir saat ini bandingkan data th vs</t>
+          <t>rt mari ketahui lebih dalam tentang perkembangan islam di republik chechnya</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>['melihat', 'data', 'kita', 'bisa', 'tahu', 'ada', 'perbaikan', 'dlm', 'penanggulangan', 'banjir', 'saat', 'ini', 'bandingkan', 'data', 'th', 'vs']</t>
+          <t>['rt', 'mari', 'ketahui', 'lebih', 'dalam', 'tentang', 'perkembangan', 'islam', 'di', 'republik', 'chechnya']</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
+          <t>['rt', 'mari', 'ketahui', 'lebih', 'dalam', 'tentang', 'perkembangan', 'islam', 'di', 'republik', 'chechnya']</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>['data', 'perbaikan', 'dlm', 'penanggulangan', 'banjir', 'bandingkan', 'data', 'th', 'vs']</t>
+          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>['data', 'baik', 'dlm', 'tanggulang', 'banjir', 'banding', 'data', 'th', 'vs']</t>
+          <t>['mari', 'ketahui', 'perkembangan', 'islam', 'republik', 'chechnya']</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>['mari', 'tahu', 'kembang', 'islam', 'republik', 'chechnya']</t>
         </is>
       </c>
     </row>
@@ -1623,34 +1792,39 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>16577</v>
+        <v>27345</v>
       </c>
       <c r="C34" t="n">
-        <v>207</v>
+        <v>323</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>data menunjukkan bhw th lalu kt mengalami hujan plg ekstrim dg curah hujan tertinggi mmhr namun demi</t>
+          <t>rt gowes dengan sejumlah dubes anies ingin sepeda jadi alat transportasi anies mendorong masyarakat agar mengubah pola pi</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>['data', 'menunjukkan', 'bhw', 'th', 'lalu', 'kt', 'mengalami', 'hujan', 'plg', 'ekstrim', 'dg', 'curah', 'hujan', 'tertinggi', 'mmhr', 'namun', 'demi']</t>
+          <t>['rt', 'gowes', 'dengan', 'sejumlah', 'dubes', 'anies', 'ingin', 'sepeda', 'jadi', 'alat', 'transportasi', 'anies', 'mendorong', 'masyarakat', 'agar', 'mengubah', 'pola', 'pi']</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
+          <t>['rt', 'gowes', 'dengan', 'sejumlah', 'duta, besar', 'anies', 'ingin', 'sepeda', 'jadi', 'alat', 'transportasi', 'anies', 'mendorong', 'masyarakat', 'agar', 'mengubah', 'pola', 'pi']</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>['data', 'bhw', 'th', 'kt', 'mengalami', 'hujan', 'plg', 'ekstrim', 'curah', 'hujan', 'tertinggi', 'mmhr']</t>
+          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>['data', 'bhw', 'th', 'kt', 'alami', 'hujan', 'plg', 'ekstrim', 'curah', 'hujan', 'tinggi', 'mmhr']</t>
+          <t>['gowes', 'duta, besar', 'anies', 'sepeda', 'alat', 'transportasi', 'anies', 'mendorong', 'masyarakat', 'mengubah', 'pola', 'pi']</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>['gowes', 'duta besar', 'anies', 'sepeda', 'alat', 'transportasi', 'anies', 'dorong', 'masyarakat', 'ubah', 'pola', 'pi']</t>
         </is>
       </c>
     </row>
@@ -1659,34 +1833,39 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>16578</v>
+        <v>27346</v>
       </c>
       <c r="C35" t="n">
-        <v>207</v>
+        <v>323</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>di jakarta pada setiap th ada bulan musim hujan datanya bs dilihat di pantau banjir data yg sy rekap ini hy</t>
+          <t>rt mujani kondisi politik belakangan di tanah air mengingatkan pada buku tahun lalu ini apakah anda diktator</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>['di', 'jakarta', 'pada', 'setiap', 'th', 'ada', 'bulan', 'musim', 'hujan', 'datanya', 'bs', 'dilihat', 'di', 'pantau', 'banjir', 'data', 'yg', 'sy', 'rekap', 'ini', 'hy']</t>
+          <t>['rt', 'mujani', 'kondisi', 'politik', 'belakangan', 'di', 'tanah', 'air', 'mengingatkan', 'pada', 'buku', 'tahun', 'lalu', 'ini', 'apakah', 'anda', 'diktator']</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 20 samples and 21 outcomes&gt;</t>
+          <t>['rt', 'mujani', 'kondisi', 'politik', 'belakangan', 'di', 'tanah', 'air', 'mengingatkan', 'pada', 'buku', 'tahun', 'lalu', 'ini', 'apakah', 'anda', 'diktator']</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>['jakarta', 'th', 'musim', 'hujan', 'datanya', 'bs', 'pantau', 'banjir', 'data', 'sy', 'rekap', 'hy']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>['jakarta', 'th', 'musim', 'hujan', 'data', 'bs', 'pantau', 'banjir', 'data', 'sy', 'rekap', 'hy']</t>
+          <t>['mujani', 'kondisi', 'politik', 'tanah', 'air', 'buku', 'diktator']</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>['mujani', 'kondisi', 'politik', 'tanah', 'air', 'buku', 'diktator']</t>
         </is>
       </c>
     </row>
@@ -1695,34 +1874,39 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>16579</v>
+        <v>27347</v>
       </c>
       <c r="C36" t="n">
-        <v>207</v>
+        <v>323</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>untuk infografis th ini infografis th lalu kemudian ditambahkan data th ini sebab th ini hujannya kan jg ekstr</t>
+          <t>dan tamantaman kotapun bisa menghasilkan makanan jakarta kini</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>['untuk', 'infografis', 'th', 'ini', 'infografis', 'th', 'lalu', 'kemudian', 'ditambahkan', 'data', 'th', 'ini', 'sebab', 'th', 'ini', 'hujannya', 'kan', 'jg', 'ekstr']</t>
+          <t>['dan', 'tamantaman', 'kotapun', 'bisa', 'menghasilkan', 'makanan', 'jakarta', 'kini']</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 19 outcomes&gt;</t>
+          <t>['dan', 'tamantaman', 'kotapun', 'bisa', 'menghasilkan', 'makanan', 'jakarta', 'kini']</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>['infografis', 'th', 'infografis', 'th', 'data', 'th', 'th', 'hujannya', 'jg', 'ekstr']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>['infografis', 'th', 'infografis', 'th', 'data', 'th', 'th', 'hujan', 'jg', 'ekstr']</t>
+          <t>['tamantaman', 'kotapun', 'menghasilkan', 'makanan', 'jakarta']</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>['tamantaman', 'kota', 'hasil', 'makan', 'jakarta']</t>
         </is>
       </c>
     </row>
@@ -1731,34 +1915,39 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>16580</v>
+        <v>27348</v>
       </c>
       <c r="C37" t="n">
-        <v>207</v>
+        <v>323</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t xml:space="preserve">kalau yg dipermasalahkan infografis sebenarnya yg dimaksudkan adl banjir besar dr tahun ke tahun awalnya adl </t>
+          <t>selamat atas pencapaian jaki amp jakwifi keep providing the best services for the people</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>['kalau', 'yg', 'dipermasalahkan', 'infografis', 'sebenarnya', 'yg', 'dimaksudkan', 'adl', 'banjir', 'besar', 'dr', 'tahun', 'ke', 'tahun', 'awalnya', 'adl']</t>
+          <t>['selamat', 'atas', 'pencapaian', 'jaki', 'amp', 'jakwifi', 'keep', 'providing', 'the', 'best', 'services', 'for', 'the', 'people']</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 16 outcomes&gt;</t>
+          <t>['selamat', 'atas', 'pencapaian', 'jaki', 'amp', 'jakwifi', 'keep', 'providing', 'the', 'best', 'services', 'for', 'the', 'people']</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>['dipermasalahkan', 'infografis', 'adl', 'banjir', 'dr', 'adl']</t>
+          <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>['masalah', 'infografis', 'adl', 'banjir', 'dr', 'adl']</t>
+          <t>['selamat', 'pencapaian', 'jaki', 'jakwifi', 'keep', 'providing', 'the', 'best', 'services', 'for', 'the', 'people']</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>['selamat', 'capai', 'jaki', 'jakwifi', 'keep', 'providing', 'the', 'best', 'services', 'for', 'the', 'people']</t>
         </is>
       </c>
     </row>
@@ -1767,34 +1956,39 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>16581</v>
+        <v>27349</v>
       </c>
       <c r="C38" t="n">
-        <v>207</v>
+        <v>323</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>kembali ke pantau banjir jk teman buka portalnya akan terlihat data banjir dari tahun ke tahun mulai dr th</t>
+          <t>rt gowes bersama gubernur dubes negara sahabat apresiasi jalur sepeda di jakarta</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>['kembali', 'ke', 'pantau', 'banjir', 'jk', 'teman', 'buka', 'portalnya', 'akan', 'terlihat', 'data', 'banjir', 'dari', 'tahun', 'ke', 'tahun', 'mulai', 'dr', 'th']</t>
+          <t>['rt', 'gowes', 'bersama', 'gubernur', 'dubes', 'negara', 'sahabat', 'apresiasi', 'jalur', 'sepeda', 'di', 'jakarta']</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 19 outcomes&gt;</t>
+          <t>['rt', 'gowes', 'bersama', 'gubernur', 'duta, besar', 'negara', 'sahabat', 'apresiasi', 'jalur', 'sepeda', 'di', 'jakarta']</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>['pantau', 'banjir', 'jk', 'teman', 'buka', 'portalnya', 'data', 'banjir', 'dr', 'th']</t>
+          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>['pantau', 'banjir', 'jk', 'teman', 'buka', 'portal', 'data', 'banjir', 'dr', 'th']</t>
+          <t>['gowes', 'gubernur', 'duta, besar', 'negara', 'sahabat', 'apresiasi', 'jalur', 'sepeda', 'jakarta']</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>['gowes', 'gubernur', 'duta besar', 'negara', 'sahabat', 'apresiasi', 'jalur', 'sepeda', 'jakarta']</t>
         </is>
       </c>
     </row>
@@ -1803,34 +1997,39 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>16582</v>
+        <v>27350</v>
       </c>
       <c r="C39" t="n">
-        <v>207</v>
+        <v>323</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>sistem jakarta satu juga dibuat di jaman anies baswedan saya ingat karena kami tgupp menjadi salah satu inisiat</t>
+          <t>rt bertanam anggur di rumah yuk</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>['sistem', 'jakarta', 'satu', 'juga', 'dibuat', 'di', 'jaman', 'anies', 'baswedan', 'saya', 'ingat', 'karena', 'kami', 'tgupp', 'menjadi', 'salah', 'satu', 'inisiat']</t>
+          <t>['rt', 'bertanam', 'anggur', 'di', 'rumah', 'yuk']</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
+          <t>['rt', 'bertanam', 'anggur', 'di', 'rumah', 'yuk']</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>['sistem', 'jakarta', 'jaman', 'anies', 'baswedan', 'tgupp', 'salah', 'inisiat']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>['sistem', 'jakarta', 'jaman', 'anies', 'baswedan', 'tgupp', 'salah', 'inisiat']</t>
+          <t>['bertanam', 'anggur', 'rumah', 'yuk']</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>['tanam', 'anggur', 'rumah', 'yuk']</t>
         </is>
       </c>
     </row>
@@ -1839,34 +2038,39 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>16583</v>
+        <v>27351</v>
       </c>
       <c r="C40" t="n">
-        <v>207</v>
+        <v>323</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>pemetaan dg unit terkecil sgt membantu menghindari disinformasi contoh bekasi jika hy membaca bekasi dari</t>
+          <t>rt ita sebaiknya kita anggap terap berbahaya hingga setidaknya musim hujan berhenti di bulan meijuni</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>['pemetaan', 'dg', 'unit', 'terkecil', 'sgt', 'membantu', 'menghindari', 'disinformasi', 'contoh', 'bekasi', 'jika', 'hy', 'membaca', 'bekasi', 'dari']</t>
+          <t>['rt', 'ita', 'sebaiknya', 'kita', 'anggap', 'terap', 'berbahaya', 'hingga', 'setidaknya', 'musim', 'hujan', 'berhenti', 'di', 'bulan', 'meijuni']</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
+          <t>['rt', 'ita', 'sebaiknya', 'kita', 'anggap', 'terap', 'berbahaya', 'hingga', 'setidaknya', 'musim', 'hujan', 'berhenti', 'di', 'bulan', 'meijuni']</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>['pemetaan', 'unit', 'terkecil', 'sgt', 'membantu', 'menghindari', 'disinformasi', 'contoh', 'bekasi', 'hy', 'membaca', 'bekasi']</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>['meta', 'unit', 'kecil', 'sgt', 'bantu', 'hindar', 'disinformasi', 'contoh', 'bekas', 'hy', 'baca', 'bekas']</t>
+          <t>['ita', 'anggap', 'terap', 'berbahaya', 'musim', 'hujan', 'berhenti', 'meijuni']</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>['ita', 'anggap', 'terap', 'bahaya', 'musim', 'hujan', 'henti', 'meijuni']</t>
         </is>
       </c>
     </row>
@@ -1875,34 +2079,39 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>16584</v>
+        <v>27352</v>
       </c>
       <c r="C41" t="n">
-        <v>207</v>
+        <v>323</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>th lalu pantau banjir blm terintegrasi dg sistem jakarta satu shg memakai satuan rw utk memetakan banjir padaha</t>
+          <t>yg menolak jual tidak masuk akal miras bukanlah kebutuhan pokok warga aneh jika pemerintah keukeuh investasi leb</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>['th', 'lalu', 'pantau', 'banjir', 'blm', 'terintegrasi', 'dg', 'sistem', 'jakarta', 'satu', 'shg', 'memakai', 'satuan', 'rw', 'utk', 'memetakan', 'banjir', 'padaha']</t>
+          <t>['yg', 'menolak', 'jual', 'tidak', 'masuk', 'akal', 'miras', 'bukanlah', 'kebutuhan', 'pokok', 'warga', 'aneh', 'jika', 'pemerintah', 'keukeuh', 'investasi', 'leb']</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
+          <t>['yang', 'menolak', 'jual', 'tidak', 'masuk', 'akal', 'minuman, keras', 'bukanlah', 'kebutuhan', 'pokok', 'warga', 'aneh', 'jika', 'pemerintah', 'keukeuh', 'investasi', 'leb']</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>['th', 'pantau', 'banjir', 'blm', 'terintegrasi', 'sistem', 'jakarta', 'shg', 'memakai', 'satuan', 'rw', 'memetakan', 'banjir', 'padaha']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>['th', 'pantau', 'banjir', 'blm', 'integrasi', 'sistem', 'jakarta', 'shg', 'pakai', 'satu', 'rw', 'meta', 'banjir', 'padaha']</t>
+          <t>['menolak', 'jual', 'masuk', 'akal', 'minuman, keras', 'kebutuhan', 'pokok', 'warga', 'aneh', 'pemerintah', 'keukeuh', 'investasi', 'leb']</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>['tolak', 'jual', 'masuk', 'akal', 'minum keras', 'butuh', 'pokok', 'warga', 'aneh', 'perintah', 'keukeuh', 'investasi', 'leb']</t>
         </is>
       </c>
     </row>
@@ -1911,34 +2120,39 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>16585</v>
+        <v>27353</v>
       </c>
       <c r="C42" t="n">
-        <v>207</v>
+        <v>323</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t xml:space="preserve">th ini pemprov dki jkt bs memetakan genangan hg level rt krn punya sistem jakarta satu yg bs petakan wilayah </t>
+          <t xml:space="preserve">kalaupun menurun jumlahnya tetap paling tinggi se indonesia di angka sd kali standar who cek di </t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>['th', 'ini', 'pemprov', 'dki', 'jkt', 'bs', 'memetakan', 'genangan', 'hg', 'level', 'rt', 'krn', 'punya', 'sistem', 'jakarta', 'satu', 'yg', 'bs', 'petakan', 'wilayah']</t>
+          <t>['kalaupun', 'menurun', 'jumlahnya', 'tetap', 'paling', 'tinggi', 'se', 'indonesia', 'di', 'angka', 'sd', 'kali', 'standar', 'who', 'cek', 'di']</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 19 samples and 20 outcomes&gt;</t>
+          <t>['kalaupun', 'menurun', 'jumlahnya', 'tetap', 'paling', 'tinggi', 'se', 'indonesia', 'di', 'angka', 'sekolah, dasar', 'kali', 'standar', 'who', 'cek', 'di']</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>['th', 'pemprov', 'dki', 'jkt', 'bs', 'memetakan', 'genangan', 'hg', 'level', 'sistem', 'jakarta', 'bs', 'petakan', 'wilayah']</t>
+          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>['th', 'pemprov', 'dki', 'jkt', 'bs', 'meta', 'genang', 'hg', 'level', 'sistem', 'jakarta', 'bs', 'peta', 'wilayah']</t>
+          <t>['menurun', 'indonesia', 'angka', 'sekolah, dasar', 'kali', 'standar', 'who', 'cek']</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>['turun', 'indonesia', 'angka', 'sekolah dasar', 'kali', 'standar', 'who', 'cek']</t>
         </is>
       </c>
     </row>
@@ -1947,34 +2161,39 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>16586</v>
+        <v>27354</v>
       </c>
       <c r="C43" t="n">
-        <v>207</v>
+        <v>323</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>melalui portal pantau banjir jakarta semua warga jakarta bahkan seluruh indonesia bisa memantau genangan re</t>
+          <t>rt terima kasih bapak semoga persahabatan indonesiarusia khususnya jakarta dan moskow akan abadi selamanya</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>['melalui', 'portal', 'pantau', 'banjir', 'jakarta', 'semua', 'warga', 'jakarta', 'bahkan', 'seluruh', 'indonesia', 'bisa', 'memantau', 'genangan', 're']</t>
+          <t>['rt', 'terima', 'kasih', 'bapak', 'semoga', 'persahabatan', 'indonesiarusia', 'khususnya', 'jakarta', 'dan', 'moskow', 'akan', 'abadi', 'selamanya']</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
+          <t>['rt', 'terima', 'kasih', 'bapak', 'semoga', 'persahabatan', 'indonesiarusia', 'khususnya', 'jakarta', 'dan', 'moskow', 'akan', 'abadi', 'selamanya']</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>['portal', 'pantau', 'banjir', 'jakarta', 'warga', 'jakarta', 'indonesia', 'memantau', 'genangan', 're']</t>
+          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>['portal', 'pantau', 'banjir', 'jakarta', 'warga', 'jakarta', 'indonesia', 'pantau', 'genang', 're']</t>
+          <t>['terima', 'kasih', 'semoga', 'persahabatan', 'indonesiarusia', 'jakarta', 'moskow', 'abadi']</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>['terima', 'kasih', 'moga', 'sahabat', 'indonesiarusia', 'jakarta', 'moskow', 'abadi']</t>
         </is>
       </c>
     </row>
@@ -1983,34 +2202,39 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>16587</v>
+        <v>27355</v>
       </c>
       <c r="C44" t="n">
-        <v>207</v>
+        <v>323</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>portal data pantau banjir jakarta dibuat tahun periode pemerintahan anies baswedan sangat keren upaya pem</t>
+          <t>rt pemprov dki raih penghargaan penanggulangan bencana dari bnpb</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>['portal', 'data', 'pantau', 'banjir', 'jakarta', 'dibuat', 'tahun', 'periode', 'pemerintahan', 'anies', 'baswedan', 'sangat', 'keren', 'upaya', 'pem']</t>
+          <t>['rt', 'pemprov', 'dki', 'raih', 'penghargaan', 'penanggulangan', 'bencana', 'dari', 'bnpb']</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>['rt', 'pemerintah, provinsi', 'daerah, khusus, ibukota', 'raih', 'penghargaan', 'penanggulangan', 'bencana', 'dari', 'bnpb']</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>['portal', 'data', 'pantau', 'banjir', 'jakarta', 'periode', 'pemerintahan', 'anies', 'baswedan', 'keren', 'upaya', 'pem']</t>
+          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>['portal', 'data', 'pantau', 'banjir', 'jakarta', 'periode', 'perintah', 'anies', 'baswedan', 'keren', 'upaya', 'pem']</t>
+          <t>['pemerintah, provinsi', 'daerah, khusus, ibukota', 'raih', 'penghargaan', 'penanggulangan', 'bencana', 'bnpb']</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>['perintah provinsi', 'daerah khusus ibukota', 'raih', 'harga', 'tanggulang', 'bencana', 'bnpb']</t>
         </is>
       </c>
     </row>
@@ -2019,34 +2243,39 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>16588</v>
+        <v>27356</v>
       </c>
       <c r="C45" t="n">
-        <v>207</v>
+        <v>323</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t xml:space="preserve">data banjir dki jakarta dari tahun ke tahun itu ada transparansi dijunjung tinggi tak ada yg ditutupi sila cek </t>
+          <t xml:space="preserve">rt ga pernah sekesal itu dng topik di twitter aku tinggalin berjamjam buka twitter tapi masih kesal huhu perlukah cerita </t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>['data', 'banjir', 'dki', 'jakarta', 'dari', 'tahun', 'ke', 'tahun', 'itu', 'ada', 'transparansi', 'dijunjung', 'tinggi', 'tak', 'ada', 'yg', 'ditutupi', 'sila', 'cek']</t>
+          <t>['rt', 'ga', 'pernah', 'sekesal', 'itu', 'dng', 'topik', 'di', 'twitter', 'aku', 'tinggalin', 'berjamjam', 'buka', 'twitter', 'tapi', 'masih', 'kesal', 'huhu', 'perlukah', 'cerita']</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 19 outcomes&gt;</t>
+          <t>['rt', 'tidak', 'pernah', 'sekesal', 'itu', 'dengan', 'topik', 'di', 'twitter', 'aku', 'tinggalkan', 'berjamjam', 'buka', 'twitter', 'tapi', 'masih', 'kesal', 'huhu', 'perlukah', 'cerita']</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>['data', 'banjir', 'dki', 'jakarta', 'transparansi', 'dijunjung', 'ditutupi', 'sila', 'cek']</t>
+          <t>&lt;FreqDist with 19 samples and 20 outcomes&gt;</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>['data', 'banjir', 'dki', 'jakarta', 'transparansi', 'junjung', 'tutup', 'sila', 'cek']</t>
+          <t>['sekesal', 'topik', 'twitter', 'tinggalkan', 'berjamjam', 'buka', 'twitter', 'kesal', 'huhu', 'cerita']</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>['kesal', 'topik', 'twitter', 'tinggal', 'berjamjam', 'buka', 'twitter', 'kesal', 'huhu', 'cerita']</t>
         </is>
       </c>
     </row>
@@ -2055,34 +2284,39 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>16589</v>
+        <v>27357</v>
       </c>
       <c r="C46" t="n">
-        <v>207</v>
+        <v>323</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>rt terima kasih kepada gubernur provinsi dki jakarta yang telah memberikan apresiasi kepada kami</t>
+          <t>silakan ini linknya tp tak semua org bs baca harus langganan dulu</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>['rt', 'terima', 'kasih', 'kepada', 'gubernur', 'provinsi', 'dki', 'jakarta', 'yang', 'telah', 'memberikan', 'apresiasi', 'kepada', 'kami']</t>
+          <t>['silakan', 'ini', 'linknya', 'tp', 'tak', 'semua', 'org', 'bs', 'baca', 'harus', 'langganan', 'dulu']</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
+          <t>['silakan', 'ini', 'linknya', 'tetapi', 'tak', 'semua', 'orang', 'bisa', 'baca', 'harus', 'langganan', 'dulu']</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>['terima', 'kasih', 'gubernur', 'provinsi', 'dki', 'jakarta', 'apresiasi']</t>
+          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>['terima', 'kasih', 'gubernur', 'provinsi', 'dki', 'jakarta', 'apresiasi']</t>
+          <t>['silakan', 'linknya', 'orang', 'baca', 'langganan']</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>['sila', 'linknya', 'orang', 'baca', 'langgan']</t>
         </is>
       </c>
     </row>
@@ -2091,34 +2325,39 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>16590</v>
+        <v>27358</v>
       </c>
       <c r="C47" t="n">
-        <v>207</v>
+        <v>323</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t xml:space="preserve">selamat berbuka puasa bagi yg menjalankannya alhamdulillah banjir di jakarta surut dlm waktu satu hari di hampir </t>
+          <t>syahkun asmara persen kesembuhan dki jauh lebih bagus daripada angka nasional vs</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>['selamat', 'berbuka', 'puasa', 'bagi', 'yg', 'menjalankannya', 'alhamdulillah', 'banjir', 'di', 'jakarta', 'surut', 'dlm', 'waktu', 'satu', 'hari', 'di', 'hampir']</t>
+          <t>['syahkun', 'asmara', 'persen', 'kesembuhan', 'dki', 'jauh', 'lebih', 'bagus', 'daripada', 'angka', 'nasional', 'vs']</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
+          <t>['syahkun', 'asmara', 'persen', 'kesembuhan', 'daerah, khusus, ibukota', 'jauh', 'lebih', 'bagus', 'daripada', 'angka', 'nasional', 'lawan']</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>['selamat', 'berbuka', 'puasa', 'menjalankannya', 'alhamdulillah', 'banjir', 'jakarta', 'surut', 'dlm']</t>
+          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>['selamat', 'buka', 'puasa', 'jalan', 'alhamdulillah', 'banjir', 'jakarta', 'surut', 'dlm']</t>
+          <t>['syahkun', 'asmara', 'persen', 'kesembuhan', 'daerah, khusus, ibukota', 'bagus', 'angka', 'nasional', 'lawan']</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>['syahkun', 'asmara', 'persen', 'sembuh', 'daerah khusus ibukota', 'bagus', 'angka', 'nasional', 'lawan']</t>
         </is>
       </c>
     </row>
@@ -2127,34 +2366,39 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>16591</v>
+        <v>27359</v>
       </c>
       <c r="C48" t="n">
-        <v>207</v>
+        <v>323</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>semoga lekas surut banjir di karawang</t>
+          <t>covid di jakarta mulai terkendali positivity rate menurun kasus aktif menurun keterisian bangsal isolasi menurun</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>['semoga', 'lekas', 'surut', 'banjir', 'di', 'karawang']</t>
+          <t>['covid', 'di', 'jakarta', 'mulai', 'terkendali', 'positivity', 'rate', 'menurun', 'kasus', 'aktif', 'menurun', 'keterisian', 'bangsal', 'isolasi', 'menurun']</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['covid', 'di', 'jakarta', 'mulai', 'terkendali', 'positivity', 'rate', 'menurun', 'kasus', 'aktif', 'menurun', 'keterisian', 'bangsal', 'isolasi', 'menurun']</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>['semoga', 'lekas', 'surut', 'banjir', 'karawang']</t>
+          <t>&lt;FreqDist with 13 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>['moga', 'lekas', 'surut', 'banjir', 'karawang']</t>
+          <t>['covid', 'jakarta', 'terkendali', 'positivity', 'rate', 'menurun', 'aktif', 'menurun', 'keterisian', 'bangsal', 'isolasi', 'menurun']</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>['covid', 'jakarta', 'kendali', 'positivity', 'rate', 'turun', 'aktif', 'turun', 'isi', 'bangsal', 'isolasi', 'turun']</t>
         </is>
       </c>
     </row>
@@ -2163,34 +2407,39 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>16592</v>
+        <v>27360</v>
       </c>
       <c r="C49" t="n">
-        <v>207</v>
+        <v>323</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>rt anies alhamdulilah pengungsi banjir sudah kembali ke rumah</t>
+          <t xml:space="preserve">rt org breaking news presiden jokowi menghapus limbah batubara dari kategori limbah berbahaya dan beracun </t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>['rt', 'anies', 'alhamdulilah', 'pengungsi', 'banjir', 'sudah', 'kembali', 'ke', 'rumah']</t>
+          <t>['rt', 'org', 'breaking', 'news', 'presiden', 'jokowi', 'menghapus', 'limbah', 'batubara', 'dari', 'kategori', 'limbah', 'berbahaya', 'dan', 'beracun']</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
+          <t>['rt', 'orang', 'istirahat', 'news', 'presiden', 'jokowi', 'menghapus', 'limbah', 'batubara', 'dari', 'kategori', 'limbah', 'berbahaya', 'dan', 'beracun']</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>['anies', 'alhamdulilah', 'pengungsi', 'banjir', 'rumah']</t>
+          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>['anies', 'alhamdulilah', 'ungsi', 'banjir', 'rumah']</t>
+          <t>['orang', 'istirahat', 'news', 'presiden', 'jokowi', 'menghapus', 'limbah', 'batubara', 'kategori', 'limbah', 'berbahaya', 'beracun']</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>['orang', 'istirahat', 'news', 'presiden', 'jokowi', 'hapus', 'limbah', 'batubara', 'kategori', 'limbah', 'bahaya', 'racun']</t>
         </is>
       </c>
     </row>
@@ -2199,34 +2448,39 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>16593</v>
+        <v>27361</v>
       </c>
       <c r="C50" t="n">
-        <v>207</v>
+        <v>323</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>rt ahelah genangan cepat surut itu artinya perbaikan system drainasenya terjadi sumur serapan itu udah dibikin ribuan pembersi</t>
+          <t>oh</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>['rt', 'ahelah', 'genangan', 'cepat', 'surut', 'itu', 'artinya', 'perbaikan', 'system', 'drainasenya', 'terjadi', 'sumur', 'serapan', 'itu', 'udah', 'dibikin', 'ribuan', 'pembersi']</t>
+          <t>['oh']</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
+          <t>['oh']</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>['ahelah', 'genangan', 'cepat', 'surut', 'perbaikan', 'system', 'drainasenya', 'sumur', 'serapan', 'udah', 'dibikin', 'ribuan', 'pembersi']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>['ahelah', 'genang', 'cepat', 'surut', 'baik', 'system', 'drainase', 'sumur', 'serap', 'udah', 'bikin', 'ribu', 'pembersi']</t>
+          <t>['oh']</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>['oh']</t>
         </is>
       </c>
     </row>
@@ -2235,34 +2489,39 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>16594</v>
+        <v>27362</v>
       </c>
       <c r="C51" t="n">
-        <v>207</v>
+        <v>323</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>rt kemarin bedah laporan keuangan kemenhan sekarang ganti kementerian pariwisata dan ekonomi kreatif  thread jad</t>
+          <t>rt jadi jelas ya campaign antiislam selama ini cuma untuk membenarkan kediktatoranotoritarianisme semoga para terpelaja</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>['rt', 'kemarin', 'bedah', 'laporan', 'keuangan', 'kemenhan', 'sekarang', 'ganti', 'kementerian', 'pariwisata', 'dan', 'ekonomi', 'kreatif', 'thread', 'jad']</t>
+          <t>['rt', 'jadi', 'jelas', 'ya', 'campaign', 'antiislam', 'selama', 'ini', 'cuma', 'untuk', 'membenarkan', 'kediktatoranotoritarianisme', 'semoga', 'para', 'terpelaja']</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
+          <t>['rt', 'jadi', 'jelas', 'ya', 'kampanye', 'antiislam', 'selama', 'ini', 'cuma', 'untuk', 'membenarkan', 'kediktatoranotoritarianisme', 'semoga', 'para', 'terpelaja']</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>['kemarin', 'bedah', 'laporan', 'keuangan', 'kemenhan', 'ganti', 'kementerian', 'pariwisata', 'ekonomi', 'kreatif', 'thread', 'jad']</t>
-        </is>
-      </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>['kemarin', 'bedah', 'lapor', 'uang', 'kemenhan', 'ganti', 'menteri', 'pariwisata', 'ekonomi', 'kreatif', 'thread', 'jad']</t>
+          <t>['kampanye', 'antiislam', 'membenarkan', 'kediktatoranotoritarianisme', 'semoga', 'terpelaja']</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>['kampanye', 'antiislam', 'benar', 'kediktatoranotoritarianisme', 'moga', 'laja']</t>
         </is>
       </c>
     </row>
@@ -2271,34 +2530,39 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>16595</v>
+        <v>27363</v>
       </c>
       <c r="C52" t="n">
-        <v>207</v>
+        <v>323</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>rt di terowongan kendal jalan kendal dukuh atas jakarta pusat terdapat kios unik bernama difabis coffee and tea semua pek</t>
+          <t>rt ganti ktp jadi ktp jakarta prosesnya gampang pas di kelurahan dan ga mutermuter kalau ktp hilang atau mau ganti bio tingga</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>['rt', 'di', 'terowongan', 'kendal', 'jalan', 'kendal', 'dukuh', 'atas', 'jakarta', 'pusat', 'terdapat', 'kios', 'unik', 'bernama', 'difabis', 'coffee', 'and', 'tea', 'semua', 'pek']</t>
+          <t>['rt', 'ganti', 'ktp', 'jadi', 'ktp', 'jakarta', 'prosesnya', 'gampang', 'pas', 'di', 'kelurahan', 'dan', 'ga', 'mutermuter', 'kalau', 'ktp', 'hilang', 'atau', 'mau', 'ganti', 'bio', 'tingga']</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 19 samples and 20 outcomes&gt;</t>
+          <t>['rt', 'ganti', 'kartu, tanda, penduduk', 'jadi', 'kartu, tanda, penduduk', 'jakarta', 'prosesnya', 'gampang', 'pas', 'di', 'kelurahan', 'dan', 'tidak', 'mutermuter', 'kalau', 'kartu, tanda, penduduk', 'hilang', 'atau', 'mau', 'ganti', 'bio', 'tinggal']</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>['terowongan', 'kendal', 'jalan', 'kendal', 'dukuh', 'jakarta', 'pusat', 'kios', 'unik', 'bernama', 'difabis', 'coffee', 'and', 'tea', 'pek']</t>
+          <t>&lt;FreqDist with 19 samples and 22 outcomes&gt;</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>['terowongan', 'kendal', 'jalan', 'kendal', 'dukuh', 'jakarta', 'pusat', 'kios', 'unik', 'nama', 'difabis', 'coffee', 'and', 'tea', 'pek']</t>
+          <t>['ganti', 'kartu, tanda, penduduk', 'kartu, tanda, penduduk', 'jakarta', 'prosesnya', 'gampang', 'pas', 'kelurahan', 'mutermuter', 'kartu, tanda, penduduk', 'hilang', 'ganti', 'bio', 'tinggal']</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>['ganti', 'kartu tanda duduk', 'kartu tanda duduk', 'jakarta', 'proses', 'gampang', 'pas', 'lurah', 'mutermuter', 'kartu tanda duduk', 'hilang', 'ganti', 'bio', 'tinggal']</t>
         </is>
       </c>
     </row>
@@ -2307,34 +2571,39 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>16596</v>
+        <v>27364</v>
       </c>
       <c r="C53" t="n">
-        <v>207</v>
+        <v>323</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>rt gimana ya org amp pejabat pmrth yg msh pada ributin soal sungai doang badan air dki cuma ruang hijau sisa dulu batav</t>
+          <t>terusan berita koran tempo selengkapnya</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>['rt', 'gimana', 'ya', 'org', 'amp', 'pejabat', 'pmrth', 'yg', 'msh', 'pada', 'ributin', 'soal', 'sungai', 'doang', 'badan', 'air', 'dki', 'cuma', 'ruang', 'hijau', 'sisa', 'dulu', 'batav']</t>
+          <t>['terusan', 'berita', 'koran', 'tempo', 'selengkapnya']</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 23 samples and 23 outcomes&gt;</t>
+          <t>['terusan', 'berita', 'koran', 'tempo', 'selengkapnya']</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>['gimana', 'org', 'pejabat', 'pmrth', 'msh', 'ributin', 'sungai', 'doang', 'badan', 'air', 'dki', 'ruang', 'hijau', 'sisa', 'batav']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>['gimana', 'org', 'jabat', 'pmrth', 'msh', 'ributin', 'sungai', 'doang', 'badan', 'air', 'dki', 'ruang', 'hijau', 'sisa', 'batav']</t>
+          <t>['terusan', 'berita', 'koran', 'tempo', 'selengkapnya']</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>['terus', 'berita', 'koran', 'tempo', 'lengkap']</t>
         </is>
       </c>
     </row>
@@ -2343,34 +2612,39 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>16597</v>
+        <v>27365</v>
       </c>
       <c r="C54" t="n">
-        <v>207</v>
+        <v>323</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>rt memimpin apel operasi lintas jaya pagi tadi di balai kota kepada seluruh jajaran jadikan</t>
+          <t>rt kehadiran ruang terbuka hijau dapat menjadi ruang inspirasi taman mataram kini dilengkapi dengan patung yuri gagarin kos</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>['rt', 'memimpin', 'apel', 'operasi', 'lintas', 'jaya', 'pagi', 'tadi', 'di', 'balai', 'kota', 'kepada', 'seluruh', 'jajaran', 'jadikan']</t>
+          <t>['rt', 'kehadiran', 'ruang', 'terbuka', 'hijau', 'dapat', 'menjadi', 'ruang', 'inspirasi', 'taman', 'mataram', 'kini', 'dilengkapi', 'dengan', 'patung', 'yuri', 'gagarin', 'kos']</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>['rt', 'kehadiran', 'ruang', 'terbuka', 'hijau', 'dapat', 'menjadi', 'ruang', 'inspirasi', 'taman', 'mataram', 'kini', 'dilengkapi', 'dengan', 'patung', 'yuri', 'gagarin', 'kos']</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>['memimpin', 'apel', 'operasi', 'lintas', 'jaya', 'pagi', 'balai', 'kota', 'jajaran', 'jadikan']</t>
+          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>['pimpin', 'apel', 'operasi', 'lintas', 'jaya', 'pagi', 'balai', 'kota', 'jajar', 'jadi']</t>
+          <t>['kehadiran', 'ruang', 'terbuka', 'hijau', 'ruang', 'inspirasi', 'taman', 'mataram', 'dilengkapi', 'patung', 'yuri', 'gagarin', 'kos']</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>['hadir', 'ruang', 'buka', 'hijau', 'ruang', 'inspirasi', 'taman', 'mataram', 'lengkap', 'patung', 'yuri', 'gagarin', 'kos']</t>
         </is>
       </c>
     </row>
@@ -2379,34 +2653,39 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>16598</v>
+        <v>27366</v>
       </c>
       <c r="C55" t="n">
-        <v>207</v>
+        <v>323</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>rt banjir jakarta anies sudah surut persen</t>
+          <t>oh bukan tanah untuk program dp rp kutip kasus dugaan korupsi pengadaan tanah di munjul kelurahan pondok ranggo</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>['rt', 'banjir', 'jakarta', 'anies', 'sudah', 'surut', 'persen']</t>
+          <t>['oh', 'bukan', 'tanah', 'untuk', 'program', 'dp', 'rp', 'kutip', 'kasus', 'dugaan', 'korupsi', 'pengadaan', 'tanah', 'di', 'munjul', 'kelurahan', 'pondok', 'ranggo']</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>['oh', 'bukan', 'tanah', 'untuk', 'program', 'uang, muka', 'rupiah', 'kutip', 'kasus', 'dugaan', 'korupsi', 'pengadaan', 'tanah', 'di', 'munjul', 'kelurahan', 'pondok', 'ranggo']</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>['banjir', 'jakarta', 'anies', 'surut', 'persen']</t>
+          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>['banjir', 'jakarta', 'anies', 'surut', 'persen']</t>
+          <t>['oh', 'tanah', 'program', 'uang, muka', 'rupiah', 'kutip', 'dugaan', 'korupsi', 'pengadaan', 'tanah', 'munjul', 'kelurahan', 'pondok', 'ranggo']</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>['oh', 'tanah', 'program', 'uang muka', 'rupiah', 'kutip', 'duga', 'korupsi', 'ada', 'tanah', 'munjul', 'lurah', 'pondok', 'ranggo']</t>
         </is>
       </c>
     </row>
@@ -2415,34 +2694,39 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>16599</v>
+        <v>27367</v>
       </c>
       <c r="C56" t="n">
-        <v>207</v>
+        <v>323</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>rt learn more about an app developed by amp to monitor realtime tracking of vaccine cold chain log</t>
+          <t>direkturnya sudah diberhentikan sejak statusnya ditetapkan sbg tersangka ol kpk</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>['rt', 'learn', 'more', 'about', 'an', 'app', 'developed', 'by', 'amp', 'to', 'monitor', 'realtime', 'tracking', 'of', 'vaccine', 'cold', 'chain', 'log']</t>
+          <t>['direkturnya', 'sudah', 'diberhentikan', 'sejak', 'statusnya', 'ditetapkan', 'sbg', 'tersangka', 'ol', 'kpk']</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
+          <t>['direkturnya', 'sudah', 'diberhentikan', 'sejak', 'statusnya', 'ditetapkan', 'sebagai', 'tersangka', 'online', 'komisi, pemberantasan, korupsi']</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>['learn', 'more', 'about', 'an', 'app', 'developed', 'by', 'to', 'monitor', 'realtime', 'tracking', 'of', 'vaccine', 'cold', 'chain', 'log']</t>
+          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>['learn', 'more', 'about', 'an', 'app', 'developed', 'by', 'to', 'monitor', 'realtime', 'tracking', 'of', 'vaccine', 'cold', 'chain', 'log']</t>
+          <t>['direkturnya', 'diberhentikan', 'statusnya', 'ditetapkan', 'tersangka', 'online', 'komisi, pemberantasan, korupsi']</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>['direktur', 'henti', 'status', 'tetap', 'sangka', 'online', 'komisi berantas korupsi']</t>
         </is>
       </c>
     </row>
@@ -2451,34 +2735,39 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>16600</v>
+        <v>27368</v>
       </c>
       <c r="C57" t="n">
-        <v>207</v>
+        <v>323</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>rt setahu saya tidak pernah menjanjikan dki bebas banjir tetapi ia berjanji utk mitigasi banjir dgn sistem yg</t>
+          <t>weeh mas edi toh ya ampun long time no see ya mabuti naman salamat po</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>['rt', 'setahu', 'saya', 'tidak', 'pernah', 'menjanjikan', 'dki', 'bebas', 'banjir', 'tetapi', 'ia', 'berjanji', 'utk', 'mitigasi', 'banjir', 'dgn', 'sistem', 'yg']</t>
+          <t>['weeh', 'mas', 'edi', 'toh', 'ya', 'ampun', 'long', 'time', 'no', 'see', 'ya', 'mabuti', 'naman', 'salamat', 'po']</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
+          <t>['weeh', 'mas', 'edi', 'toh', 'ya', 'ampun', 'long', 'time', 'no', 'see', 'ya', 'mabuti', 'aman', 'salamat', 'po']</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>['setahu', 'menjanjikan', 'dki', 'bebas', 'banjir', 'berjanji', 'mitigasi', 'banjir', 'sistem']</t>
+          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>['tahu', 'janji', 'dki', 'bebas', 'banjir', 'janji', 'mitigasi', 'banjir', 'sistem']</t>
+          <t>['weeh', 'mas', 'edi', 'ampun', 'long', 'time', 'no', 'see', 'mabuti', 'aman', 'salamat', 'po']</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>['weeh', 'mas', 'edi', 'ampun', 'long', 'time', 'no', 'see', 'mabuti', 'aman', 'salamat', 'po']</t>
         </is>
       </c>
     </row>
@@ -2487,34 +2776,39 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>16601</v>
+        <v>27369</v>
       </c>
       <c r="C58" t="n">
-        <v>207</v>
+        <v>323</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>rt alhamdulillah antisipasi itu sudah dilakukan dari kemarin atas izin allah satu hari kering kenapa karena jajaran dalam po</t>
+          <t>rt jaringan mafia tanah ibu kota ditengarai ikut mempengaruhi pembahasan anggaran di dewan perwakilan rakyat daerah jakarta</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>['rt', 'alhamdulillah', 'antisipasi', 'itu', 'sudah', 'dilakukan', 'dari', 'kemarin', 'atas', 'izin', 'allah', 'satu', 'hari', 'kering', 'kenapa', 'karena', 'jajaran', 'dalam', 'po']</t>
+          <t>['rt', 'jaringan', 'mafia', 'tanah', 'ibu', 'kota', 'ditengarai', 'ikut', 'mempengaruhi', 'pembahasan', 'anggaran', 'di', 'dewan', 'perwakilan', 'rakyat', 'daerah', 'jakarta']</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
+          <t>['rt', 'jaringan', 'mafia', 'tanah', 'ibu', 'kota', 'ditengarai', 'ikut', 'mempengaruhi', 'pembahasan', 'anggaran', 'di', 'dewan', 'perwakilan', 'rakyat', 'daerah', 'jakarta']</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>['alhamdulillah', 'antisipasi', 'kemarin', 'izin', 'allah', 'kering', 'jajaran', 'po']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>['alhamdulillah', 'antisipasi', 'kemarin', 'izin', 'allah', 'kering', 'jajar', 'po']</t>
+          <t>['jaringan', 'mafia', 'tanah', 'kota', 'ditengarai', 'mempengaruhi', 'pembahasan', 'anggaran', 'dewan', 'perwakilan', 'rakyat', 'daerah', 'jakarta']</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>['jaring', 'mafia', 'tanah', 'kota', 'tengara', 'pengaruh', 'bahas', 'anggar', 'dewan', 'wakil', 'rakyat', 'daerah', 'jakarta']</t>
         </is>
       </c>
     </row>
@@ -2523,34 +2817,39 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>16602</v>
+        <v>27370</v>
       </c>
       <c r="C59" t="n">
-        <v>207</v>
+        <v>323</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t xml:space="preserve">terimakasih masukannya terkait data by year nanti saya teruskan usulannya kepada dinas terkait yg jelas dki tak </t>
+          <t>dikutip dari sini</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>['terimakasih', 'masukannya', 'terkait', 'data', 'by', 'year', 'nanti', 'saya', 'teruskan', 'usulannya', 'kepada', 'dinas', 'terkait', 'yg', 'jelas', 'dki', 'tak']</t>
+          <t>['dikutip', 'dari', 'sini']</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
+          <t>['dikutip', 'dari', 'sini']</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>['terimakasih', 'masukannya', 'terkait', 'data', 'by', 'year', 'teruskan', 'usulannya', 'dinas', 'terkait', 'dki']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>['terimakasih', 'masuk', 'kait', 'data', 'by', 'year', 'terus', 'usul', 'dinas', 'kait', 'dki']</t>
+          <t>['dikutip']</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>['kutip']</t>
         </is>
       </c>
     </row>
@@ -2559,34 +2858,39 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>16603</v>
+        <v>27371</v>
       </c>
       <c r="C60" t="n">
-        <v>207</v>
+        <v>323</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>bekasi</t>
+          <t>ketua dprd dki prasetio edi disebutsebut mengawal anggaran pembelian tanah bagi sarana jaya di parlemen perubahan</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>['bekasi']</t>
+          <t>['ketua', 'dprd', 'dki', 'prasetio', 'edi', 'disebutsebut', 'mengawal', 'anggaran', 'pembelian', 'tanah', 'bagi', 'sarana', 'jaya', 'di', 'parlemen', 'perubahan']</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['ketua', 'dewan, perwakilan, rakyat, daerah', 'daerah, khusus, ibukota', 'prasetio', 'edi', 'disebutsebut', 'mengawal', 'anggaran', 'pembelian', 'tanah', 'bagi', 'sarana', 'jaya', 'di', 'parlemen', 'perubahan']</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>['bekasi']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>['bekas']</t>
+          <t>['ketua', 'dewan, perwakilan, rakyat, daerah', 'daerah, khusus, ibukota', 'prasetio', 'edi', 'disebutsebut', 'mengawal', 'anggaran', 'pembelian', 'tanah', 'sarana', 'jaya', 'parlemen', 'perubahan']</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>['ketua', 'dewan wakil rakyat daerah', 'daerah khusus ibukota', 'prasetio', 'edi', 'disebutsebut', 'awal', 'anggar', 'beli', 'tanah', 'sarana', 'jaya', 'parlemen', 'ubah']</t>
         </is>
       </c>
     </row>
@@ -2595,34 +2899,39 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>16604</v>
+        <v>27372</v>
       </c>
       <c r="C61" t="n">
-        <v>207</v>
+        <v>323</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>bagus juga jika jawa barat tiap kabupaten amp setiap pemda di indonesia rilis data juga seperti dki jakarta berapa</t>
+          <t>program pengendalian banjir jakarta salah satunya pembuatan waduk dan embung good job</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>['bagus', 'juga', 'jika', 'jawa', 'barat', 'tiap', 'kabupaten', 'amp', 'setiap', 'pemda', 'di', 'indonesia', 'rilis', 'data', 'juga', 'seperti', 'dki', 'jakarta', 'berapa']</t>
+          <t>['program', 'pengendalian', 'banjir', 'jakarta', 'salah', 'satunya', 'pembuatan', 'waduk', 'dan', 'embung', 'good', 'job']</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
+          <t>['program', 'pengendalian', 'banjir', 'jakarta', 'salah', 'satunya', 'pembuatan', 'waduk', 'dan', 'embung', 'good', 'job']</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>['bagus', 'jawa', 'barat', 'kabupaten', 'pemda', 'indonesia', 'rilis', 'data', 'dki', 'jakarta']</t>
+          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>['bagus', 'jawa', 'barat', 'kabupaten', 'pemda', 'indonesia', 'rilis', 'data', 'dki', 'jakarta']</t>
+          <t>['program', 'pengendalian', 'banjir', 'jakarta', 'salah', 'satunya', 'pembuatan', 'waduk', 'embung', 'good', 'job']</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>['program', 'kendali', 'banjir', 'jakarta', 'salah', 'satu', 'buat', 'waduk', 'embung', 'good', 'job']</t>
         </is>
       </c>
     </row>
@@ -2631,34 +2940,39 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>16605</v>
+        <v>27373</v>
       </c>
       <c r="C62" t="n">
-        <v>207</v>
+        <v>323</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>rt masingmasing punya kenalan semoga terhibur laksono pap</t>
+          <t xml:space="preserve">rt jadi gini dirut yang diangkat pak ahok itu memang benar korupsi tapi ente jangan cuma ngejar ujungnya tapi </t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>['rt', 'masingmasing', 'punya', 'kenalan', 'semoga', 'terhibur', 'laksono', 'pap']</t>
+          <t>['rt', 'jadi', 'gini', 'dirut', 'yang', 'diangkat', 'pak', 'ahok', 'itu', 'memang', 'benar', 'korupsi', 'tapi', 'ente', 'jangan', 'cuma', 'ngejar', 'ujungnya', 'tapi']</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>['rt', 'jadi', 'begini', 'direktur, utama', 'yang', 'diangkat', 'pak', 'ahok', 'itu', 'memang', 'benar', 'korupsi', 'tapi', 'kamu', 'jangan', 'cuma', 'mengejar', 'ujungnya', 'tapi']</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>['masingmasing', 'kenalan', 'semoga', 'terhibur', 'laksono', 'pap']</t>
+          <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>['masingmasing', 'kenal', 'moga', 'hibur', 'laksono', 'pap']</t>
+          <t>['direktur, utama', 'diangkat', 'ahok', 'korupsi', 'mengejar', 'ujungnya']</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>['direktur utama', 'angkat', 'ahok', 'korupsi', 'kejar', 'ujung']</t>
         </is>
       </c>
     </row>
@@ -2667,34 +2981,39 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>16606</v>
+        <v>27374</v>
       </c>
       <c r="C63" t="n">
-        <v>207</v>
+        <v>323</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>rt jakarta sudah sering banjir sejak zaman tarumanegara abad ke lima</t>
+          <t>biarkan proses hukum bekerja kita dukung kpk ri bekerja tuntas yang salah memang harus ditebas tanpa kompromi pe</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>['rt', 'jakarta', 'sudah', 'sering', 'banjir', 'sejak', 'zaman', 'tarumanegara', 'abad', 'ke', 'lima']</t>
+          <t>['biarkan', 'proses', 'hukum', 'bekerja', 'kita', 'dukung', 'kpk', 'ri', 'bekerja', 'tuntas', 'yang', 'salah', 'memang', 'harus', 'ditebas', 'tanpa', 'kompromi', 'pe']</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
+          <t>['biarkan', 'proses', 'hukum', 'bekerja', 'kita', 'dukung', 'komisi, pemberantasan, korupsi', 'ri', 'bekerja', 'tuntas', 'yang', 'salah', 'memang', 'harus', 'ditebas', 'tanpa', 'kompromi', 'pe']</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>['jakarta', 'banjir', 'zaman', 'tarumanegara', 'abad']</t>
+          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>['jakarta', 'banjir', 'zaman', 'tarumanegara', 'abad']</t>
+          <t>['biarkan', 'proses', 'hukum', 'dukung', 'komisi, pemberantasan, korupsi', 'ri', 'tuntas', 'salah', 'ditebas', 'kompromi', 'pe']</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>['biar', 'proses', 'hukum', 'dukung', 'komisi berantas korupsi', 'ri', 'tuntas', 'salah', 'tebas', 'kompromi', 'pe']</t>
         </is>
       </c>
     </row>
@@ -2703,34 +3022,39 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>16607</v>
+        <v>27375</v>
       </c>
       <c r="C64" t="n">
-        <v>207</v>
+        <v>323</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>rt buat yg kupingnya panas denger air masuk ke bumi karena sunatullah mungkin bisa lebih paham klo pake istilah lain</t>
+          <t>rt jkt loh tambah bus jg diselipin di anggaran tiap thn lewat pso yg diberikan kpd transjakarta hex mungkin sdh saatnya jg war</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>['rt', 'buat', 'yg', 'kupingnya', 'panas', 'denger', 'air', 'masuk', 'ke', 'bumi', 'karena', 'sunatullah', 'mungkin', 'bisa', 'lebih', 'paham', 'klo', 'pake', 'istilah', 'lain']</t>
+          <t>['rt', 'jkt', 'loh', 'tambah', 'bus', 'jg', 'diselipin', 'di', 'anggaran', 'tiap', 'thn', 'lewat', 'pso', 'yg', 'diberikan', 'kpd', 'transjakarta', 'hex', 'mungkin', 'sdh', 'saatnya', 'jg', 'war']</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 20 samples and 20 outcomes&gt;</t>
+          <t>['rt', 'jakarta', 'lah', 'tambah', 'bus', 'juga', 'diselipin', 'di', 'anggaran', 'tiap', 'tahun', 'lewat', 'pso', 'yang', 'diberikan', 'kepada', 'transjakarta', 'hex', 'mungkin', 'sudah', 'saatnya', 'juga', 'war']</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>['kupingnya', 'panas', 'denger', 'air', 'masuk', 'bumi', 'sunatullah', 'paham', 'pake', 'istilah']</t>
+          <t>&lt;FreqDist with 22 samples and 23 outcomes&gt;</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>['kuping', 'panas', 'denger', 'air', 'masuk', 'bumi', 'sunatullah', 'paham', 'pake', 'istilah']</t>
+          <t>['jakarta', 'bus', 'diselipin', 'anggaran', 'pso', 'transjakarta', 'hex', 'war']</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>['jakarta', 'bus', 'diselipin', 'anggar', 'pso', 'transjakarta', 'hex', 'war']</t>
         </is>
       </c>
     </row>
@@ -2739,34 +3063,39 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>16608</v>
+        <v>27376</v>
       </c>
       <c r="C65" t="n">
-        <v>207</v>
+        <v>323</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>rt tp dilemanya bukan cuma fenomena kemangnya banjir lalu salah kemang saja itu jutaan  pelanggaran hanya di masa</t>
+          <t>rt sudah saya jawab dgn tegas dan jelas ajakan yg aneh bin ajaib ngajak adu data terhadap kasus korupsi yg korupsi mmg</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>['rt', 'tp', 'dilemanya', 'bukan', 'cuma', 'fenomena', 'kemangnya', 'banjir', 'lalu', 'salah', 'kemang', 'saja', 'itu', 'jutaan', 'pelanggaran', 'hanya', 'di', 'masa']</t>
+          <t>['rt', 'sudah', 'saya', 'jawab', 'dgn', 'tegas', 'dan', 'jelas', 'ajakan', 'yg', 'aneh', 'bin', 'ajaib', 'ngajak', 'adu', 'data', 'terhadap', 'kasus', 'korupsi', 'yg', 'korupsi', 'mmg']</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
+          <t>['rt', 'sudah', 'saya', 'jawab', 'dengan', 'tegas', 'dan', 'jelas', 'ajakan', 'yang', 'aneh', 'bin', 'ajaib', 'mengajak', 'adu', 'data', 'terhadap', 'kasus', 'korupsi', 'yang', 'korupsi', 'memang']</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>['tp', 'dilemanya', 'fenomena', 'kemangnya', 'banjir', 'salah', 'kemang', 'jutaan', 'pelanggaran']</t>
+          <t>&lt;FreqDist with 20 samples and 22 outcomes&gt;</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>['tp', 'dilema', 'fenomena', 'kemang', 'banjir', 'salah', 'kemang', 'juta', 'langgar']</t>
+          <t>['ajakan', 'aneh', 'bin', 'ajaib', 'mengajak', 'adu', 'data', 'korupsi', 'korupsi']</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>['aja', 'aneh', 'bin', 'ajaib', 'ajak', 'adu', 'data', 'korupsi', 'korupsi']</t>
         </is>
       </c>
     </row>
@@ -2775,34 +3104,39 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>16609</v>
+        <v>27377</v>
       </c>
       <c r="C66" t="n">
-        <v>207</v>
+        <v>323</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>oh jadi apa gunanya pemerintah dong</t>
+          <t>patters tak ada cerita mangkrak program rumah dp rp direncanakan sejak awal abw menjabat amp</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>['oh', 'jadi', 'apa', 'gunanya', 'pemerintah', 'dong']</t>
+          <t>['patters', 'tak', 'ada', 'cerita', 'mangkrak', 'program', 'rumah', 'dp', 'rp', 'direncanakan', 'sejak', 'awal', 'abw', 'menjabat', 'amp']</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['patters', 'tak', 'ada', 'cerita', 'mangkrak', 'program', 'rumah', 'uang, muka', 'rupiah', 'direncanakan', 'sejak', 'awal', 'abw', 'menjabat', 'amp']</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>['oh', 'gunanya', 'pemerintah']</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>['oh', 'guna', 'perintah']</t>
+          <t>['patters', 'cerita', 'mangkrak', 'program', 'rumah', 'uang, muka', 'rupiah', 'direncanakan', 'abw', 'menjabat']</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>['patters', 'cerita', 'mangkrak', 'program', 'rumah', 'uang muka', 'rupiah', 'rencana', 'abw', 'jabat']</t>
         </is>
       </c>
     </row>
@@ -2811,34 +3145,39 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>16610</v>
+        <v>27378</v>
       </c>
       <c r="C67" t="n">
-        <v>207</v>
+        <v>323</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>rt fahrial ini di perumahan ciledug indah tangerang not in jakarta waduh mister lu kagak tahu jangan ikut campur</t>
+          <t>tak tergantung orang per orang pemprov dki jakartapastikan program rumah dp rp akan tetap berlanjut meskidirut</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>['rt', 'fahrial', 'ini', 'di', 'perumahan', 'ciledug', 'indah', 'tangerang', 'not', 'in', 'jakarta', 'waduh', 'mister', 'lu', 'kagak', 'tahu', 'jangan', 'ikut', 'campur']</t>
+          <t>['tak', 'tergantung', 'orang', 'per', 'orang', 'pemprov', 'dki', 'jakartapastikan', 'program', 'rumah', 'dp', 'rp', 'akan', 'tetap', 'berlanjut', 'meskidirut']</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
+          <t>['tak', 'tergantung', 'orang', 'per', 'orang', 'pemerintah, provinsi', 'daerah, khusus, ibukota', 'jakartapastikan', 'program', 'rumah', 'uang, muka', 'rupiah', 'akan', 'tetap', 'berlanjut', 'meskidirut']</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>['fahrial', 'perumahan', 'ciledug', 'indah', 'tangerang', 'not', 'in', 'jakarta', 'mister', 'lu', 'kagak', 'campur']</t>
+          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>['fahrial', 'rumah', 'ciledug', 'indah', 'tangerang', 'not', 'in', 'jakarta', 'mister', 'lu', 'kagak', 'campur']</t>
+          <t>['tergantung', 'orang', 'orang', 'pemerintah, provinsi', 'daerah, khusus, ibukota', 'jakartapastikan', 'program', 'rumah', 'uang, muka', 'rupiah', 'berlanjut', 'meskidirut']</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>['gantung', 'orang', 'orang', 'perintah provinsi', 'daerah khusus ibukota', 'jakartapastikan', 'program', 'rumah', 'uang muka', 'rupiah', 'lanjut', 'meskidirut']</t>
         </is>
       </c>
     </row>
@@ -2847,34 +3186,39 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>16611</v>
+        <v>27379</v>
       </c>
       <c r="C68" t="n">
-        <v>207</v>
+        <v>323</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>rt melanggar garis sempadan sungai bantaran kali dijadiin jalan masukkeluar kendaraan bahkan mengubah aliran sungai dosa bor</t>
+          <t>rt</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>['rt', 'melanggar', 'garis', 'sempadan', 'sungai', 'bantaran', 'kali', 'dijadiin', 'jalan', 'masukkeluar', 'kendaraan', 'bahkan', 'mengubah', 'aliran', 'sungai', 'dosa', 'bor']</t>
+          <t>['rt']</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
+          <t>['rt']</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>['melanggar', 'garis', 'sempadan', 'sungai', 'bantaran', 'kali', 'dijadiin', 'jalan', 'masukkeluar', 'kendaraan', 'mengubah', 'aliran', 'sungai', 'dosa', 'bor']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>['langgar', 'garis', 'sempadan', 'sungai', 'bantaran', 'kali', 'dijadiin', 'jalan', 'masukkeluar', 'kendara', 'ubah', 'alir', 'sungai', 'dosa', 'bor']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -2883,34 +3227,39 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>16612</v>
+        <v>27380</v>
       </c>
       <c r="C69" t="n">
-        <v>207</v>
+        <v>323</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>iya anies tak pernah menjanjikan jakarta bebas banjir walau begitu program pengendalian banjir jak</t>
+          <t>rt alhamdulillah menang lagi barokallahsemoga senantiasa berjuang utk manfaat dan kemashlahata</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>['iya', 'anies', 'tak', 'pernah', 'menjanjikan', 'jakarta', 'bebas', 'banjir', 'walau', 'begitu', 'program', 'pengendalian', 'banjir', 'jak']</t>
+          <t>['rt', 'alhamdulillah', 'menang', 'lagi', 'barokallahsemoga', 'senantiasa', 'berjuang', 'utk', 'manfaat', 'dan', 'kemashlahata']</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
+          <t>['rt', 'alhamdulillah', 'menang', 'lagi', 'barokallahsemoga', 'senantiasa', 'berjuang', 'untuk', 'manfaat', 'dan', 'kemashlahata']</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>['iya', 'anies', 'menjanjikan', 'jakarta', 'bebas', 'banjir', 'program', 'pengendalian', 'banjir', 'jak']</t>
+          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>['iya', 'anies', 'janji', 'jakarta', 'bebas', 'banjir', 'program', 'kendali', 'banjir', 'jak']</t>
+          <t>['alhamdulillah', 'menang', 'barokallahsemoga', 'senantiasa', 'berjuang', 'manfaat', 'kemashlahata']</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>['alhamdulillah', 'menang', 'barokallahsemoga', 'senantiasa', 'juang', 'manfaat', 'kemashlahata']</t>
         </is>
       </c>
     </row>
@@ -2919,34 +3268,39 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>16613</v>
+        <v>27381</v>
       </c>
       <c r="C70" t="n">
-        <v>207</v>
+        <v>323</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>tak ada janji jakarta bebas banjir dalam janji kampanya anies baswedan cek saja</t>
+          <t>rt yuk banyak kuenya yang masih pakai resep klasik sejak bengkel koewe ini berdiri pada hingga sekara</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>['tak', 'ada', 'janji', 'jakarta', 'bebas', 'banjir', 'dalam', 'janji', 'kampanya', 'anies', 'baswedan', 'cek', 'saja']</t>
+          <t>['rt', 'yuk', 'banyak', 'kuenya', 'yang', 'masih', 'pakai', 'resep', 'klasik', 'sejak', 'bengkel', 'koewe', 'ini', 'berdiri', 'pada', 'hingga', 'sekara']</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 13 outcomes&gt;</t>
+          <t>['rt', 'yuk', 'banyak', 'kuenya', 'yang', 'masih', 'pakai', 'resep', 'klasik', 'sejak', 'bengkel', 'koewe', 'ini', 'berdiri', 'pada', 'hingga', 'sekara']</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>['janji', 'jakarta', 'bebas', 'banjir', 'janji', 'kampanya', 'anies', 'baswedan', 'cek']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>['janji', 'jakarta', 'bebas', 'banjir', 'janji', 'kampa', 'anies', 'baswedan', 'cek']</t>
+          <t>['yuk', 'kuenya', 'pakai', 'resep', 'klasik', 'bengkel', 'koewe', 'berdiri', 'sekara']</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>['yuk', 'kue', 'pakai', 'resep', 'klasik', 'bengkel', 'koewe', 'diri', 'kara']</t>
         </is>
       </c>
     </row>
@@ -2955,34 +3309,39 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>16614</v>
+        <v>27382</v>
       </c>
       <c r="C71" t="n">
-        <v>207</v>
+        <v>323</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>sudah ada distribusi bantuan makanan dari pemprov dki utk pengungsi bs cek update dari dinsos bpbd dan</t>
+          <t>rt teruskan tegakkan pemerintahan yg bersih dan akuntabel bu tatak</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>['sudah', 'ada', 'distribusi', 'bantuan', 'makanan', 'dari', 'pemprov', 'dki', 'utk', 'pengungsi', 'bs', 'cek', 'update', 'dari', 'dinsos', 'bpbd', 'dan']</t>
+          <t>['rt', 'teruskan', 'tegakkan', 'pemerintahan', 'yg', 'bersih', 'dan', 'akuntabel', 'bu', 'tatak']</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
+          <t>['rt', 'teruskan', 'tegakkan', 'pemerintahan', 'yang', 'bersih', 'dan', 'akuntabel', 'bu', 'tatak']</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>['distribusi', 'bantuan', 'makanan', 'pemprov', 'dki', 'pengungsi', 'bs', 'cek', 'update', 'dinsos', 'bpbd']</t>
+          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>['distribusi', 'bantu', 'makan', 'pemprov', 'dki', 'ungsi', 'bs', 'cek', 'update', 'dinsos', 'bpbd']</t>
+          <t>['teruskan', 'tegakkan', 'pemerintahan', 'bersih', 'akuntabel', 'bu', 'tatak']</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>['terus', 'tegak', 'perintah', 'bersih', 'akuntabel', 'bu', 'tatak']</t>
         </is>
       </c>
     </row>
@@ -2991,34 +3350,39 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>16615</v>
+        <v>27383</v>
       </c>
       <c r="C72" t="n">
-        <v>207</v>
+        <v>323</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t xml:space="preserve">mengapa di infografis tahunnya acak sbb yg ingin dibandingkan adl banjir akibat hujan ekstrim dr waktu ke waktu </t>
+          <t>vario ini gugatan atas pulau  pulaunya memang belum dibangun kok</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>['mengapa', 'di', 'infografis', 'tahunnya', 'acak', 'sbb', 'yg', 'ingin', 'dibandingkan', 'adl', 'banjir', 'akibat', 'hujan', 'ekstrim', 'dr', 'waktu', 'ke', 'waktu']</t>
+          <t>['vario', 'ini', 'gugatan', 'atas', 'pulau', 'pulaunya', 'memang', 'belum', 'dibangun', 'kok']</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
+          <t>['vario', 'ini', 'gugatan', 'atas', 'pulau', 'pulaunya', 'memang', 'belum', 'dibangun', 'kok']</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>['infografis', 'tahunnya', 'acak', 'sbb', 'dibandingkan', 'adl', 'banjir', 'akibat', 'hujan', 'ekstrim', 'dr']</t>
+          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>['infografis', 'tahun', 'acak', 'sbb', 'banding', 'adl', 'banjir', 'akibat', 'hujan', 'ekstrim', 'dr']</t>
+          <t>['vario', 'gugatan', 'pulau', 'pulaunya', 'dibangun']</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>['vario', 'gugat', 'pulau', 'pulau', 'bangun']</t>
         </is>
       </c>
     </row>
@@ -3027,34 +3391,39 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>16616</v>
+        <v>27384</v>
       </c>
       <c r="C73" t="n">
-        <v>207</v>
+        <v>323</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>rt fahrial alhamdulillah air sungai disamping jl tubagus angke kec grogol petamburan sudah mulai surut daerah jelambar dan pesing</t>
+          <t>terimakasih</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>['rt', 'fahrial', 'alhamdulillah', 'air', 'sungai', 'disamping', 'jl', 'tubagus', 'angke', 'kec', 'grogol', 'petamburan', 'sudah', 'mulai', 'surut', 'daerah', 'jelambar', 'dan', 'pesing']</t>
+          <t>['terimakasih']</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
+          <t>['terima, kasih']</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>['fahrial', 'alhamdulillah', 'air', 'sungai', 'disamping', 'jl', 'tubagus', 'angke', 'kec', 'grogol', 'petamburan', 'surut', 'daerah', 'jelambar', 'pesing']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>['fahrial', 'alhamdulillah', 'air', 'sungai', 'samping', 'jl', 'tubagus', 'angke', 'kec', 'grogol', 'tambur', 'surut', 'daerah', 'jambar', 'pesing']</t>
+          <t>['terima, kasih']</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>['terima kasih']</t>
         </is>
       </c>
     </row>
@@ -3063,34 +3432,39 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>16617</v>
+        <v>27385</v>
       </c>
       <c r="C74" t="n">
-        <v>207</v>
+        <v>323</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>rt banjir yang sempat menggenang di jalan kemang raya jakarta selatan kini mulai surut minggu foto nugroho sej</t>
+          <t>final amp mengikat gugatan pt jaladri eka pakci ditolak oleh ma di tingkat pk pencabutan ijin reklamasi pulau  ole</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>['rt', 'banjir', 'yang', 'sempat', 'menggenang', 'di', 'jalan', 'kemang', 'raya', 'jakarta', 'selatan', 'kini', 'mulai', 'surut', 'minggu', 'foto', 'nugroho', 'sej']</t>
+          <t>['final', 'amp', 'mengikat', 'gugatan', 'pt', 'jaladri', 'eka', 'pakci', 'ditolak', 'oleh', 'ma', 'di', 'tingkat', 'pk', 'pencabutan', 'ijin', 'reklamasi', 'pulau', 'ole']</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
+          <t>['final', 'amp', 'mengikat', 'gugatan', 'pt', 'jaladri', 'eka', 'pakci', 'ditolak', 'oleh', 'sama', 'di', 'tingkat', 'pak', 'pencabutan', 'izin', 'reklamasi', 'pulau', 'ole']</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>['banjir', 'menggenang', 'jalan', 'kemang', 'raya', 'jakarta', 'selatan', 'surut', 'minggu', 'foto', 'nugroho', 'sej']</t>
+          <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>['banjir', 'genang', 'jalan', 'kemang', 'raya', 'jakarta', 'selatan', 'surut', 'minggu', 'foto', 'nugroho', 'sej']</t>
+          <t>['final', 'mengikat', 'gugatan', 'pt', 'jaladri', 'eka', 'pakci', 'ditolak', 'tingkat', 'pencabutan', 'izin', 'reklamasi', 'pulau', 'ole']</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>['final', 'ikat', 'gugat', 'pt', 'jaladri', 'eka', 'pakci', 'tolak', 'tingkat', 'cabut', 'izin', 'reklamasi', 'pulau', 'ole']</t>
         </is>
       </c>
     </row>
@@ -3099,34 +3473,39 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>16618</v>
+        <v>27386</v>
       </c>
       <c r="C75" t="n">
-        <v>207</v>
+        <v>323</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>data bpbd terbaru hari ini ada korban meninggal dunia peringatan bagi kita agar hati tak be</t>
+          <t>aprilianto beritanya maret</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>['data', 'bpbd', 'terbaru', 'hari', 'ini', 'ada', 'korban', 'meninggal', 'dunia', 'peringatan', 'bagi', 'kita', 'agar', 'hati', 'tak', 'be']</t>
+          <t>['aprilianto', 'beritanya', 'maret']</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['aprilianto', 'beritanya', 'maret']</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>['data', 'bpbd', 'terbaru', 'korban', 'meninggal', 'dunia', 'peringatan', 'hati', 'be']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>['data', 'bpbd', 'baru', 'korban', 'tinggal', 'dunia', 'ingat', 'hati', 'be']</t>
+          <t>['aprilianto', 'beritanya', 'maret']</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>['aprilianto', 'berita', 'maret']</t>
         </is>
       </c>
     </row>
@@ -3135,34 +3514,39 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>16619</v>
+        <v>27387</v>
       </c>
       <c r="C76" t="n">
-        <v>207</v>
+        <v>323</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>rt temanteman terima kasih atas kontribusi kolaborasi bersama yang telah dan sedang dilakukan dalam penanganan banjir</t>
+          <t>terkait sengkarut pembelian tanah</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>['rt', 'temanteman', 'terima', 'kasih', 'atas', 'kontribusi', 'kolaborasi', 'bersama', 'yang', 'telah', 'dan', 'sedang', 'dilakukan', 'dalam', 'penanganan', 'banjir']</t>
+          <t>['terkait', 'sengkarut', 'pembelian', 'tanah']</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['terkait', 'sengkarut', 'pembelian', 'tanah']</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>['temanteman', 'terima', 'kasih', 'kontribusi', 'kolaborasi', 'penanganan', 'banjir']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>['temanteman', 'terima', 'kasih', 'kontribusi', 'kolaborasi', 'tangan', 'banjir']</t>
+          <t>['terkait', 'sengkarut', 'pembelian', 'tanah']</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>['kait', 'sengkarut', 'beli', 'tanah']</t>
         </is>
       </c>
     </row>
@@ -3171,34 +3555,39 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>16620</v>
+        <v>27388</v>
       </c>
       <c r="C77" t="n">
-        <v>207</v>
+        <v>323</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>rt kalo pas kampanye dr janjinya cuma yg terkait banjir bunyinya pun spt ini meningkatkan realisasi renca</t>
+          <t>gubernur provinsi dki jakarta menonaktifkan direktur utama perumda pembangunan sarana jaya yoory  pinontoans sete</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>['rt', 'kalo', 'pas', 'kampanye', 'dr', 'janjinya', 'cuma', 'yg', 'terkait', 'banjir', 'bunyinya', 'pun', 'spt', 'ini', 'meningkatkan', 'realisasi', 'renca']</t>
+          <t>['gubernur', 'provinsi', 'dki', 'jakarta', 'menonaktifkan', 'direktur', 'utama', 'perumda', 'pembangunan', 'sarana', 'jaya', 'yoory', 'pinontoans', 'sete']</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['gubernur', 'provinsi', 'daerah, khusus, ibukota', 'jakarta', 'menonaktifkan', 'direktur', 'utama', 'perumda', 'pembangunan', 'sarana', 'jaya', 'yoory', 'pinontoans', 'sete']</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>['pas', 'kampanye', 'dr', 'janjinya', 'terkait', 'banjir', 'bunyinya', 'spt', 'meningkatkan', 'realisasi', 'renca']</t>
+          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>['pas', 'kampanye', 'dr', 'janji', 'kait', 'banjir', 'bunyi', 'spt', 'tingkat', 'realisasi', 'renca']</t>
+          <t>['gubernur', 'provinsi', 'daerah, khusus, ibukota', 'jakarta', 'menonaktifkan', 'direktur', 'utama', 'perumda', 'pembangunan', 'sarana', 'jaya', 'yoory', 'pinontoans', 'sete']</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>['gubernur', 'provinsi', 'daerah khusus ibukota', 'jakarta', 'nonaktif', 'direktur', 'utama', 'perumda', 'bangun', 'sarana', 'jaya', 'yoory', 'pinontoans', 'sete']</t>
         </is>
       </c>
     </row>
@@ -3207,34 +3596,39 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>16621</v>
+        <v>27389</v>
       </c>
       <c r="C78" t="n">
-        <v>207</v>
+        <v>323</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>rt laksono jakarta kota air merekam pertarungan tahun melibatkan tata ruang teknik sipil dan tata uang yang selalu dimenan</t>
+          <t>rt setidaknya tiap hari dikritik dki mampu keluar jadi pemenang sungguh sangat terbukti pengkritik dan pendebat adalah te</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>['rt', 'laksono', 'jakarta', 'kota', 'air', 'merekam', 'pertarungan', 'tahun', 'melibatkan', 'tata', 'ruang', 'teknik', 'sipil', 'dan', 'tata', 'uang', 'yang', 'selalu', 'dimenan']</t>
+          <t>['rt', 'setidaknya', 'tiap', 'hari', 'dikritik', 'dki', 'mampu', 'keluar', 'jadi', 'pemenang', 'sungguh', 'sangat', 'terbukti', 'pengkritik', 'dan', 'pendebat', 'adalah', 'te']</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
+          <t>['rt', 'setidaknya', 'tiap', 'hari', 'dikritik', 'daerah, khusus, ibukota', 'mampu', 'keluar', 'jadi', 'pemenang', 'sungguh', 'sangat', 'terbukti', 'pengkritik', 'dan', 'pendebat', 'adalah', 'te']</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>['laksono', 'jakarta', 'kota', 'air', 'merekam', 'pertarungan', 'melibatkan', 'tata', 'ruang', 'teknik', 'sipil', 'tata', 'uang', 'dimenan']</t>
+          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>['laksono', 'jakarta', 'kota', 'air', 'rekam', 'tarung', 'libat', 'tata', 'ruang', 'teknik', 'sipil', 'tata', 'uang', 'nan']</t>
+          <t>['dikritik', 'daerah, khusus, ibukota', 'pemenang', 'sungguh', 'terbukti', 'pengkritik', 'pendebat', 'te']</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>['kritik', 'daerah khusus ibukota', 'menang', 'sungguh', 'bukti', 'kritik', 'debat', 'te']</t>
         </is>
       </c>
     </row>
@@ -3243,34 +3637,39 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>16622</v>
+        <v>27390</v>
       </c>
       <c r="C79" t="n">
-        <v>207</v>
+        <v>323</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>rt mba sya tinggal di klapa gading langganan banjir tapi gak pernah maki gubernur klo banjir alhamdulillah sekarang tempat</t>
+          <t>penjualan saham bir ini bukan soal haram halal saja tapi lebih ke soal relevansi investasi pemerintah aneh bukan</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>['rt', 'mba', 'sya', 'tinggal', 'di', 'klapa', 'gading', 'langganan', 'banjir', 'tapi', 'gak', 'pernah', 'maki', 'gubernur', 'klo', 'banjir', 'alhamdulillah', 'sekarang', 'tempat']</t>
+          <t>['penjualan', 'saham', 'bir', 'ini', 'bukan', 'soal', 'haram', 'halal', 'saja', 'tapi', 'lebih', 'ke', 'soal', 'relevansi', 'investasi', 'pemerintah', 'aneh', 'bukan']</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
+          <t>['penjualan', 'saham', 'bir', 'ini', 'bukan', 'soal', 'haram', 'halal', 'saja', 'tapi', 'lebih', 'ke', 'soal', 'relevansi', 'investasi', 'pemerintah', 'aneh', 'bukan']</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>['mba', 'sya', 'tinggal', 'klapa', 'gading', 'langganan', 'banjir', 'maki', 'gubernur', 'banjir', 'alhamdulillah']</t>
+          <t>&lt;FreqDist with 16 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>['mba', 'sya', 'tinggal', 'klapa', 'gading', 'langgan', 'banjir', 'maki', 'gubernur', 'banjir', 'alhamdulillah']</t>
+          <t>['penjualan', 'saham', 'bir', 'haram', 'halal', 'relevansi', 'investasi', 'pemerintah', 'aneh']</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>['jual', 'saham', 'bir', 'haram', 'halal', 'relevansi', 'investasi', 'perintah', 'aneh']</t>
         </is>
       </c>
     </row>
@@ -3279,34 +3678,39 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>16623</v>
+        <v>27391</v>
       </c>
       <c r="C80" t="n">
-        <v>207</v>
+        <v>323</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>rt arif kalau hujan bisa ngomong pasti dsh jengkel banget karena selalu dijadikan kambing hitam atas banjir padahal faktornya ulah</t>
+          <t>ketua dprd dki jakarta prasetyo edi marsudi menyebut kerja keras anies dan jajarannya berbuah manis setelah jakart</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>['rt', 'arif', 'kalau', 'hujan', 'bisa', 'ngomong', 'pasti', 'dsh', 'jengkel', 'banget', 'karena', 'selalu', 'dijadikan', 'kambing', 'hitam', 'atas', 'banjir', 'padahal', 'faktornya', 'ulah']</t>
+          <t>['ketua', 'dprd', 'dki', 'jakarta', 'prasetyo', 'edi', 'marsudi', 'menyebut', 'kerja', 'keras', 'anies', 'dan', 'jajarannya', 'berbuah', 'manis', 'setelah', 'jakart']</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 20 samples and 20 outcomes&gt;</t>
+          <t>['ketua', 'dewan, perwakilan, rakyat, daerah', 'daerah, khusus, ibukota', 'jakarta', 'prasetyo', 'edi', 'marsudi', 'menyebut', 'kerja', 'keras', 'anies', 'dan', 'jajarannya', 'berbuah', 'manis', 'setelah', 'jakart']</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>['arif', 'hujan', 'ngomong', 'dsh', 'jengkel', 'banget', 'dijadikan', 'kambing', 'hitam', 'banjir', 'faktornya', 'ulah']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>['arif', 'hujan', 'ngomong', 'dsh', 'jengkel', 'banget', 'jadi', 'kambing', 'hitam', 'banjir', 'faktor', 'ulah']</t>
+          <t>['ketua', 'dewan, perwakilan, rakyat, daerah', 'daerah, khusus, ibukota', 'jakarta', 'prasetyo', 'edi', 'marsudi', 'menyebut', 'kerja', 'keras', 'anies', 'jajarannya', 'berbuah', 'manis', 'jakart']</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>['ketua', 'dewan wakil rakyat daerah', 'daerah khusus ibukota', 'jakarta', 'prasetyo', 'edi', 'marsudi', 'sebut', 'kerja', 'keras', 'anies', 'jajar', 'buah', 'manis', 'jakart']</t>
         </is>
       </c>
     </row>
@@ -3315,34 +3719,39 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>16624</v>
+        <v>27392</v>
       </c>
       <c r="C81" t="n">
-        <v>207</v>
+        <v>323</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>data tiap tahun ada mas di bpbd kalau soal infografis keliha</t>
+          <t>tren ke depan mobil listrik yg lbh ramah lingkungan tapi pemerintah malah kasih insentif pajak untuk pembelian mob</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>['data', 'tiap', 'tahun', 'ada', 'mas', 'di', 'bpbd', 'kalau', 'soal', 'infografis', 'keliha']</t>
+          <t>['tren', 'ke', 'depan', 'mobil', 'listrik', 'yg', 'lbh', 'ramah', 'lingkungan', 'tapi', 'pemerintah', 'malah', 'kasih', 'insentif', 'pajak', 'untuk', 'pembelian', 'mob']</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
+          <t>['tren', 'ke', 'depan', 'mobil', 'listrik', 'yang', 'lebih', 'ramah', 'lingkungan', 'tapi', 'pemerintah', 'malah', 'kasih', 'insentif', 'pajak', 'untuk', 'pembelian', 'mob']</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>['data', 'mas', 'bpbd', 'infografis', 'keliha']</t>
+          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>['data', 'mas', 'bpbd', 'infografis', 'keliha']</t>
+          <t>['tren', 'mobil', 'listrik', 'ramah', 'lingkungan', 'pemerintah', 'kasih', 'insentif', 'pajak', 'pembelian', 'mob']</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>['tren', 'mobil', 'listrik', 'ramah', 'lingkung', 'perintah', 'kasih', 'insentif', 'pajak', 'beli', 'mob']</t>
         </is>
       </c>
     </row>
@@ -3351,34 +3760,39 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>16625</v>
+        <v>27393</v>
       </c>
       <c r="C82" t="n">
-        <v>207</v>
+        <v>323</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>perlu dilihat tanggal data agar valid yaitu per kemarin wib jadi kemungkinan data berubah masih</t>
+          <t>rt kpk mengusut dugaan suap pemeriksaan pajak perusahaan baru kasus tiga perusahaan naik ke penyidikan rasuah mencapa</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>['perlu', 'dilihat', 'tanggal', 'data', 'agar', 'valid', 'yaitu', 'per', 'kemarin', 'wib', 'jadi', 'kemungkinan', 'data', 'berubah', 'masih']</t>
+          <t>['rt', 'kpk', 'mengusut', 'dugaan', 'suap', 'pemeriksaan', 'pajak', 'perusahaan', 'baru', 'kasus', 'tiga', 'perusahaan', 'naik', 'ke', 'penyidikan', 'rasuah', 'mencapa']</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
+          <t>['rt', 'komisi, pemberantasan, korupsi', 'mengusut', 'dugaan', 'suap', 'pemeriksaan', 'pajak', 'perusahaan', 'baru', 'kasus', 'tiga', 'perusahaan', 'naik', 'ke', 'penyidikan', 'rasuah', 'mencapa']</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>['tanggal', 'data', 'valid', 'kemarin', 'wib', 'data', 'berubah']</t>
+          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>['tanggal', 'data', 'valid', 'kemarin', 'wib', 'data', 'ubah']</t>
+          <t>['komisi, pemberantasan, korupsi', 'mengusut', 'dugaan', 'suap', 'pemeriksaan', 'pajak', 'perusahaan', 'perusahaan', 'penyidikan', 'rasuah', 'mencapa']</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>['komisi berantas korupsi', 'usut', 'duga', 'suap', 'periksa', 'pajak', 'usaha', 'usaha', 'sidi', 'rasuah', 'capa']</t>
         </is>
       </c>
     </row>
@@ -3387,34 +3801,39 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>16626</v>
+        <v>27394</v>
       </c>
       <c r="C83" t="n">
-        <v>207</v>
+        <v>323</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>data tsb on progress kemungkinan korban men</t>
+          <t>rt slm aparat negaranya korup inovasi kyk gini akan susah dikembangkan bu pst dipersulit kayak mobil listri</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>['data', 'tsb', 'on', 'progress', 'kemungkinan', 'korban', 'men']</t>
+          <t>['rt', 'slm', 'aparat', 'negaranya', 'korup', 'inovasi', 'kyk', 'gini', 'akan', 'susah', 'dikembangkan', 'bu', 'pst', 'dipersulit', 'kayak', 'mobil', 'listri']</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>['rt', 'salam', 'aparat', 'negaranya', 'korup', 'inovasi', 'kayak', 'begini', 'akan', 'susah', 'dikembangkan', 'bu', 'pasti', 'dipersulit', 'kayak', 'mobil', 'listri']</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>['data', 'tsb', 'on', 'progress', 'korban', 'men']</t>
+          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>['data', 'tsb', 'on', 'progress', 'korban', 'men']</t>
+          <t>['salam', 'aparat', 'negaranya', 'korup', 'inovasi', 'kayak', 'susah', 'dikembangkan', 'bu', 'dipersulit', 'kayak', 'mobil', 'listri']</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>['salam', 'aparat', 'negara', 'korup', 'inovasi', 'kayak', 'susah', 'kembang', 'bu', 'sulit', 'kayak', 'mobil', 'listri']</t>
         </is>
       </c>
     </row>
@@ -3423,34 +3842,39 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>16627</v>
+        <v>27395</v>
       </c>
       <c r="C84" t="n">
-        <v>207</v>
+        <v>323</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t xml:space="preserve">di jakarta dampak musim hujan tahun ini berkurang banjir genangi hanya km wilayah bandingkan th lalu km </t>
+          <t>rt kasus yg sama di mobil listrik dasep ahmadi prototype mobil listriknya yg biaya risetnya rpm per unit dipe</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>['di', 'jakarta', 'dampak', 'musim', 'hujan', 'tahun', 'ini', 'berkurang', 'banjir', 'genangi', 'hanya', 'km', 'wilayah', 'bandingkan', 'th', 'lalu', 'km']</t>
+          <t>['rt', 'kasus', 'yg', 'sama', 'di', 'mobil', 'listrik', 'dasep', 'ahmadi', 'prototype', 'mobil', 'listriknya', 'yg', 'biaya', 'risetnya', 'rpm', 'per', 'unit', 'dipe']</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
+          <t>['rt', 'kasus', 'yang', 'sama', 'di', 'mobil', 'listrik', 'dasep', 'ahmadi', 'prototype', 'mobil', 'listriknya', 'yang', 'biaya', 'risetnya', 'rpm', 'per', 'unit', 'dipe']</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>['jakarta', 'dampak', 'musim', 'hujan', 'berkurang', 'banjir', 'genangi', 'km', 'wilayah', 'bandingkan', 'th', 'km']</t>
+          <t>&lt;FreqDist with 17 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>['jakarta', 'dampak', 'musim', 'hujan', 'kurang', 'banjir', 'genang', 'km', 'wilayah', 'banding', 'th', 'km']</t>
+          <t>['mobil', 'listrik', 'dasep', 'ahmadi', 'prototype', 'mobil', 'listriknya', 'biaya', 'risetnya', 'rpm', 'unit', 'dipe']</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>['mobil', 'listrik', 'dasep', 'ahmadi', 'prototype', 'mobil', 'listrik', 'biaya', 'riset', 'rpm', 'unit', 'dipe']</t>
         </is>
       </c>
     </row>
@@ -3459,34 +3883,39 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>16628</v>
+        <v>27396</v>
       </c>
       <c r="C85" t="n">
-        <v>207</v>
+        <v>323</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>rt alhamdulillah pagi ini ruasruas jalan yang tergenang luapan kali krukut sudah dapat dilintasi seperti biasa apresias</t>
+          <t>ada yg ciptakan mobil listrik ada yg bikin sepeda listrik ada yg bikin pesawat kini mobil bertenaga surya tapi</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>['rt', 'alhamdulillah', 'pagi', 'ini', 'ruasruas', 'jalan', 'yang', 'tergenang', 'luapan', 'kali', 'krukut', 'sudah', 'dapat', 'dilintasi', 'seperti', 'biasa', 'apresias']</t>
+          <t>['ada', 'yg', 'ciptakan', 'mobil', 'listrik', 'ada', 'yg', 'bikin', 'sepeda', 'listrik', 'ada', 'yg', 'bikin', 'pesawat', 'kini', 'mobil', 'bertenaga', 'surya', 'tapi']</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['ada', 'yang', 'ciptakan', 'mobil', 'listrik', 'ada', 'yang', 'bikin', 'sepeda', 'listrik', 'ada', 'yang', 'bikin', 'pesawat', 'kini', 'mobil', 'bertenaga', 'surya', 'tapi']</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>['alhamdulillah', 'pagi', 'ruasruas', 'jalan', 'tergenang', 'luapan', 'kali', 'krukut', 'dilintasi', 'apresias']</t>
+          <t>&lt;FreqDist with 12 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>['alhamdulillah', 'pagi', 'ruasruas', 'jalan', 'genang', 'luap', 'kali', 'krukut', 'lintas', 'apresias']</t>
+          <t>['ciptakan', 'mobil', 'listrik', 'sepeda', 'listrik', 'pesawat', 'mobil', 'bertenaga', 'surya']</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>['cipta', 'mobil', 'listrik', 'sepeda', 'listrik', 'pesawat', 'mobil', 'tenaga', 'surya']</t>
         </is>
       </c>
     </row>
@@ -3495,34 +3924,39 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>16629</v>
+        <v>27397</v>
       </c>
       <c r="C86" t="n">
-        <v>207</v>
+        <v>323</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>prioritas kita pertama dan terutama adalah memastikan warga selamat jangan sampai ada korban jiwa anies basweda</t>
+          <t>rt alhamdulillah kamis lalu menerima penghargaan karya bhakti peduli satpol pp dari penghargaan ini semakin</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>['prioritas', 'kita', 'pertama', 'dan', 'terutama', 'adalah', 'memastikan', 'warga', 'selamat', 'jangan', 'sampai', 'ada', 'korban', 'jiwa', 'anies', 'basweda']</t>
+          <t>['rt', 'alhamdulillah', 'kamis', 'lalu', 'menerima', 'penghargaan', 'karya', 'bhakti', 'peduli', 'satpol', 'pp', 'dari', 'penghargaan', 'ini', 'semakin']</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['rt', 'alhamdulillah', 'kamis', 'lalu', 'menerima', 'penghargaan', 'karya', 'bhakti', 'peduli', 'satuan, polisi', 'pp', 'dari', 'penghargaan', 'ini', 'semakin']</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>['prioritas', 'warga', 'selamat', 'korban', 'jiwa', 'anies', 'basweda']</t>
+          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>['prioritas', 'warga', 'selamat', 'korban', 'jiwa', 'anies', 'basweda']</t>
+          <t>['alhamdulillah', 'kamis', 'menerima', 'penghargaan', 'karya', 'bhakti', 'peduli', 'satuan, polisi', 'pp', 'penghargaan']</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>['alhamdulillah', 'kamis', 'terima', 'harga', 'karya', 'bhakti', 'peduli', 'satu polisi', 'pp', 'harga']</t>
         </is>
       </c>
     </row>
@@ -3531,34 +3965,39 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>16630</v>
+        <v>27398</v>
       </c>
       <c r="C87" t="n">
-        <v>207</v>
+        <v>323</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>rt satu hal yg luput dari perbincangan banjir parah di kemang hari ini lippo</t>
+          <t>rt harjito poer anies itu bukan cuma patuh terhadap konstitusi beliau menggunakan konsitu</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>['rt', 'satu', 'hal', 'yg', 'luput', 'dari', 'perbincangan', 'banjir', 'parah', 'di', 'kemang', 'hari', 'ini', 'lippo']</t>
+          <t>['rt', 'harjito', 'poer', 'anies', 'itu', 'bukan', 'cuma', 'patuh', 'terhadap', 'konstitusi', 'beliau', 'menggunakan', 'konsitu']</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
+          <t>['rt', 'harjito', 'poer', 'anies', 'itu', 'bukan', 'cuma', 'patuh', 'terhadap', 'konstitusi', 'beliau', 'menggunakan', 'konsitu']</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>['luput', 'perbincangan', 'banjir', 'parah', 'kemang', 'lippo']</t>
+          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>['luput', 'bincang', 'banjir', 'parah', 'kemang', 'lippo']</t>
+          <t>['harjito', 'poer', 'anies', 'patuh', 'konstitusi', 'beliau', 'konsitu']</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>['harjito', 'poer', 'anies', 'patuh', 'konstitusi', 'beliau', 'konsitu']</t>
         </is>
       </c>
     </row>
@@ -3567,34 +4006,35 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>16631</v>
+        <v>27399</v>
       </c>
       <c r="C88" t="n">
-        <v>207</v>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>rt dki pendidikan yang tuntas dan berkualitas bagi semua dengan kjmu kabar gembira pemprov dki jakarta melalui telah</t>
-        </is>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="D88" t="inlineStr"/>
       <c r="E88" t="inlineStr">
         <is>
-          <t>['rt', 'dki', 'pendidikan', 'yang', 'tuntas', 'dan', 'berkualitas', 'bagi', 'semua', 'dengan', 'kjmu', 'kabar', 'gembira', 'pemprov', 'dki', 'jakarta', 'melalui', 'telah']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>['dki', 'pendidikan', 'tuntas', 'berkualitas', 'kjmu', 'kabar', 'gembira', 'pemprov', 'dki', 'jakarta']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>['dki', 'didik', 'tuntas', 'kualitas', 'kjmu', 'kabar', 'gembira', 'pemprov', 'dki', 'jakarta']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -3603,34 +4043,39 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>16632</v>
+        <v>27400</v>
       </c>
       <c r="C89" t="n">
-        <v>207</v>
+        <v>323</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>rt pagi tadi memeriksa langsung pengendalian pintupintu air dan rumah pompa serta koordinasi lapangan di posko bencana</t>
+          <t xml:space="preserve">bagaimana membunuh demokrasi ada yg cara kasar dg kudeta ada yg halus dg manipulasi sistem demokratik yg ada </t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>['rt', 'pagi', 'tadi', 'memeriksa', 'langsung', 'pengendalian', 'pintupintu', 'air', 'dan', 'rumah', 'pompa', 'serta', 'koordinasi', 'lapangan', 'di', 'posko', 'bencana']</t>
+          <t>['bagaimana', 'membunuh', 'demokrasi', 'ada', 'yg', 'cara', 'kasar', 'dg', 'kudeta', 'ada', 'yg', 'halus', 'dg', 'manipulasi', 'sistem', 'demokratik', 'yg', 'ada']</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['bagaimana', 'membunuh', 'demokrasi', 'ada', 'yang', 'cara', 'kasar', 'dengan', 'kudeta', 'ada', 'yang', 'halus', 'dengan', 'manipulasi', 'sistem', 'demokratik', 'yang', 'ada']</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>['pagi', 'memeriksa', 'langsung', 'pengendalian', 'pintupintu', 'air', 'rumah', 'pompa', 'koordinasi', 'lapangan', 'posko', 'bencana']</t>
+          <t>&lt;FreqDist with 13 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>['pagi', 'periksa', 'langsung', 'kendali', 'pintupintu', 'air', 'rumah', 'pompa', 'koordinasi', 'lapang', 'posko', 'bencana']</t>
+          <t>['membunuh', 'demokrasi', 'kasar', 'kudeta', 'halus', 'manipulasi', 'sistem', 'demokratik']</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>['bunuh', 'demokrasi', 'kasar', 'kudeta', 'halus', 'manipulasi', 'sistem', 'demokratik']</t>
         </is>
       </c>
     </row>
@@ -3639,34 +4084,39 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>16633</v>
+        <v>27401</v>
       </c>
       <c r="C90" t="n">
-        <v>207</v>
+        <v>323</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>rt peta sebaran hujan jabodetabek februari tercatat curah hujan lebat dan ekstrem di sejumlah titik jika melihat</t>
+          <t>rt kalau diselidiki cepatcepat akar utama sikap antiagama itu cuma satu kemalasan menjalankan ritualritual yang ada</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>['rt', 'peta', 'sebaran', 'hujan', 'jabodetabek', 'februari', 'tercatat', 'curah', 'hujan', 'lebat', 'dan', 'ekstrem', 'di', 'sejumlah', 'titik', 'jika', 'melihat']</t>
+          <t>['rt', 'kalau', 'diselidiki', 'cepatcepat', 'akar', 'utama', 'sikap', 'antiagama', 'itu', 'cuma', 'satu', 'kemalasan', 'menjalankan', 'ritualritual', 'yang', 'ada']</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
+          <t>['rt', 'kalau', 'diselidiki', 'cepatcepat', 'akar', 'utama', 'sikap', 'antiagama', 'itu', 'cuma', 'satu', 'kemalasan', 'menjalankan', 'ritualritual', 'yang', 'ada']</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>['peta', 'sebaran', 'hujan', 'jabodetabek', 'februari', 'tercatat', 'curah', 'hujan', 'lebat', 'ekstrem', 'titik']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>['peta', 'sebar', 'hujan', 'jabodetabek', 'februari', 'catat', 'curah', 'hujan', 'lebat', 'ekstrem', 'titik']</t>
+          <t>['diselidiki', 'cepatcepat', 'akar', 'utama', 'sikap', 'antiagama', 'kemalasan', 'menjalankan', 'ritualritual']</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>['selidik', 'cepatcepat', 'akar', 'utama', 'sikap', 'antiagama', 'malas', 'jalan', 'ritualritual']</t>
         </is>
       </c>
     </row>
@@ -3675,34 +4125,39 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>16634</v>
+        <v>27402</v>
       </c>
       <c r="C91" t="n">
-        <v>207</v>
+        <v>323</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>rt tetap siaga pada tengah malam ketika hujan deras dalam saringan sam</t>
+          <t>berangasan tidak tahu malu kasar dalam merebut kekuasaan di pewayangan digambarkan sbg buto raksasa tentu sa</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>['rt', 'tetap', 'siaga', 'pada', 'tengah', 'malam', 'ketika', 'hujan', 'deras', 'dalam', 'saringan', 'sam']</t>
+          <t>['berangasan', 'tidak', 'tahu', 'malu', 'kasar', 'dalam', 'merebut', 'kekuasaan', 'di', 'pewayangan', 'digambarkan', 'sbg', 'buto', 'raksasa', 'tentu', 'sa']</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
+          <t>['berangasan', 'tidak', 'tahu', 'malu', 'kasar', 'dalam', 'merebut', 'kekuasaan', 'di', 'pewayangan', 'digambarkan', 'sebagai', 'buto', 'raksasa', 'tentu', 'sa']</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>['siaga', 'malam', 'hujan', 'deras', 'saringan', 'sam']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>['siaga', 'malam', 'hujan', 'deras', 'saring', 'sam']</t>
+          <t>['berangasan', 'malu', 'kasar', 'merebut', 'kekuasaan', 'pewayangan', 'digambarkan', 'buto', 'raksasa', 'sa']</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>['berangasan', 'malu', 'kasar', 'rebut', 'kuasa', 'wayang', 'gambar', 'buto', 'raksasa', 'sa']</t>
         </is>
       </c>
     </row>
@@ -3711,34 +4166,39 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>16635</v>
+        <v>27403</v>
       </c>
       <c r="C92" t="n">
-        <v>207</v>
+        <v>323</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>jika berita ttg itb akhir ini banyak dikaitkan dg aksi gar terhadap pak din syamsuddin amp bu nurhayati wardah beri</t>
+          <t>rt halo sahabat lingkungan pelatihan uji emisi dan sertifikasi teknisi uji emisi terus berlangsung lho agar makin banyak te</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>['jika', 'berita', 'ttg', 'itb', 'akhir', 'ini', 'banyak', 'dikaitkan', 'dg', 'aksi', 'gar', 'terhadap', 'pak', 'din', 'syamsuddin', 'amp', 'bu', 'nurhayati', 'wardah', 'beri']</t>
+          <t>['rt', 'halo', 'sahabat', 'lingkungan', 'pelatihan', 'uji', 'emisi', 'dan', 'sertifikasi', 'teknisi', 'uji', 'emisi', 'terus', 'berlangsung', 'lho', 'agar', 'makin', 'banyak', 'te']</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 20 samples and 20 outcomes&gt;</t>
+          <t>['rt', 'halo', 'sahabat', 'lingkungan', 'pelatihan', 'uji', 'emisi', 'dan', 'sertifikasi', 'teknisi', 'uji', 'emisi', 'terus', 'berlangsung', 'lo', 'agar', 'makin', 'banyak', 'te']</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>['berita', 'ttg', 'itb', 'dikaitkan', 'aksi', 'gar', 'din', 'syamsuddin', 'bu', 'nurhayati', 'wardah']</t>
+          <t>&lt;FreqDist with 17 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>['berita', 'ttg', 'itb', 'kait', 'aksi', 'gar', 'din', 'syamsuddin', 'bu', 'nurhayati', 'wardah']</t>
+          <t>['halo', 'sahabat', 'lingkungan', 'pelatihan', 'uji', 'emisi', 'sertifikasi', 'teknisi', 'uji', 'emisi', 'lo', 'te']</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>['halo', 'sahabat', 'lingkung', 'latih', 'uji', 'emisi', 'sertifikasi', 'teknisi', 'uji', 'emisi', 'lo', 'te']</t>
         </is>
       </c>
     </row>
@@ -3747,34 +4207,39 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>16636</v>
+        <v>27404</v>
       </c>
       <c r="C93" t="n">
-        <v>207</v>
+        <v>323</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>rt asmara cool statement ngobrol itu nanti kalau vaksinnya lebih banyak dari jumlah penduduk</t>
+          <t>rt di kolong fly over pasar rebo jg ada utk area skateboard setau sy skrg bu</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>['rt', 'asmara', 'cool', 'statement', 'ngobrol', 'itu', 'nanti', 'kalau', 'vaksinnya', 'lebih', 'banyak', 'dari', 'jumlah', 'penduduk']</t>
+          <t>['rt', 'di', 'kolong', 'fly', 'over', 'pasar', 'rebo', 'jg', 'ada', 'utk', 'area', 'skateboard', 'setau', 'sy', 'skrg', 'bu']</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
+          <t>['rt', 'di', 'kolong', 'fly', 'over', 'pasar', 'rebo', 'juga', 'ada', 'untuk', 'area', 'skateboard', 'sepengetahuan', 'saya', 'sekarang', 'bu']</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>['asmara', 'cool', 'statement', 'ngobrol', 'vaksinnya', 'penduduk']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>['asmara', 'cool', 'statement', 'ngobrol', 'vaksin', 'duduk']</t>
+          <t>['kolong', 'fly', 'over', 'pasar', 'rebo', 'area', 'skateboard', 'sepengetahuan', 'bu']</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>['kolong', 'fly', 'over', 'pasar', 'rebo', 'area', 'skateboard', 'tahu', 'bu']</t>
         </is>
       </c>
     </row>
@@ -3783,34 +4248,39 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>16637</v>
+        <v>27405</v>
       </c>
       <c r="C94" t="n">
-        <v>207</v>
+        <v>323</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>ada indikasi kerugian negara lebih dari rp  rp  dan rp  bpk</t>
+          <t>rt pemprov dki jakarta melalui dinas sumber daya air provinsi dki jakarta di tahun ini punya program pengelolaan air limb</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>['ada', 'indikasi', 'kerugian', 'negara', 'lebih', 'dari', 'rp', 'rp', 'dan', 'rp', 'bpk']</t>
+          <t>['rt', 'pemprov', 'dki', 'jakarta', 'melalui', 'dinas', 'sumber', 'daya', 'air', 'provinsi', 'dki', 'jakarta', 'di', 'tahun', 'ini', 'punya', 'program', 'pengelolaan', 'air', 'limb']</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 9 samples and 11 outcomes&gt;</t>
+          <t>['rt', 'pemerintah, provinsi', 'daerah, khusus, ibukota', 'jakarta', 'melalui', 'dinas', 'sumber', 'daya', 'air', 'provinsi', 'daerah, khusus, ibukota', 'jakarta', 'di', 'tahun', 'ini', 'punya', 'program', 'pengelolaan', 'air', 'limb']</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>['indikasi', 'kerugian', 'negara', 'rp', 'rp', 'rp', 'bpk']</t>
+          <t>&lt;FreqDist with 17 samples and 20 outcomes&gt;</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>['indikasi', 'rugi', 'negara', 'rp', 'rp', 'rp', 'bpk']</t>
+          <t>['pemerintah, provinsi', 'daerah, khusus, ibukota', 'jakarta', 'dinas', 'sumber', 'daya', 'air', 'provinsi', 'daerah, khusus, ibukota', 'jakarta', 'program', 'pengelolaan', 'air', 'limb']</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>['perintah provinsi', 'daerah khusus ibukota', 'jakarta', 'dinas', 'sumber', 'daya', 'air', 'provinsi', 'daerah khusus ibukota', 'jakarta', 'program', 'kelola', 'air', 'limb']</t>
         </is>
       </c>
     </row>
@@ -3819,34 +4289,39 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>16638</v>
+        <v>27406</v>
       </c>
       <c r="C95" t="n">
-        <v>207</v>
+        <v>323</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>inalillahi wa inna illaihi rojiun ikut berduka cita atas meninggalnya ibunda bang semoga almarhumah hus</t>
+          <t>ada sanggahannya post here to be fair</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>['inalillahi', 'wa', 'inna', 'illaihi', 'rojiun', 'ikut', 'berduka', 'cita', 'atas', 'meninggalnya', 'ibunda', 'bang', 'semoga', 'almarhumah', 'hus']</t>
+          <t>['ada', 'sanggahannya', 'post', 'here', 'to', 'be', 'fair']</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>['ada', 'sanggahannya', 'post', 'here', 'to', 'be', 'fair']</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>['inalillahi', 'wa', 'inna', 'illaihi', 'rojiun', 'berduka', 'cita', 'meninggalnya', 'ibunda', 'bang', 'semoga', 'almarhumah', 'hus']</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>['inalillahi', 'wa', 'inna', 'illaihi', 'rojiun', 'duka', 'cita', 'tinggal', 'ibunda', 'bang', 'moga', 'almarhumah', 'hus']</t>
+          <t>['sanggahannya', 'post', 'here', 'to', 'be', 'fair']</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>['sanggah', 'post', 'here', 'to', 'be', 'fair']</t>
         </is>
       </c>
     </row>
@@ -3855,34 +4330,39 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>16639</v>
+        <v>27407</v>
       </c>
       <c r="C96" t="n">
-        <v>207</v>
+        <v>323</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>rt jakpreneur berkolaborasi dengan perumda pasarjaya dan menyediakan fasilitas untuk para mitra umkm jakart</t>
+          <t>rt alhamdulillah pak gubernur kita gercep banget terhadap isue yang sedang hangat langsung solved deh barakallah sehat sela</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>['rt', 'jakpreneur', 'berkolaborasi', 'dengan', 'perumda', 'pasarjaya', 'dan', 'menyediakan', 'fasilitas', 'untuk', 'para', 'mitra', 'umkm', 'jakart']</t>
+          <t>['rt', 'alhamdulillah', 'pak', 'gubernur', 'kita', 'gercep', 'banget', 'terhadap', 'isue', 'yang', 'sedang', 'hangat', 'langsung', 'solved', 'deh', 'barakallah', 'sehat', 'sela']</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
+          <t>['rt', 'alhamdulillah', 'pak', 'gubernur', 'kita', 'gerak, cepat', 'banget', 'terhadap', 'isu', 'yang', 'sedang', 'hangat', 'langsung', 'solved', 'deh', 'barakallah', 'sehat', 'sela']</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>['jakpreneur', 'berkolaborasi', 'perumda', 'pasarjaya', 'menyediakan', 'fasilitas', 'mitra', 'umkm', 'jakart']</t>
+          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>['jakpreneur', 'kolaborasi', 'perumda', 'pasarjaya', 'sedia', 'fasilitas', 'mitra', 'umkm', 'jakart']</t>
+          <t>['alhamdulillah', 'gubernur', 'gerak, cepat', 'banget', 'isu', 'hangat', 'langsung', 'solved', 'deh', 'barakallah', 'sehat']</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>['alhamdulillah', 'gubernur', 'gerak cepat', 'banget', 'isu', 'hangat', 'langsung', 'solved', 'deh', 'barakallah', 'sehat']</t>
         </is>
       </c>
     </row>
@@ -3891,34 +4371,39 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>16640</v>
+        <v>27408</v>
       </c>
       <c r="C97" t="n">
-        <v>207</v>
+        <v>323</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>dan hambahamba tuhan yang maha penyayang itu adalah orang yg rendah hati amp apabila orang jahil menyapa mereka</t>
+          <t>rt while jokowi pursues supposed big bang foreign investment reforms hes telling indonesian consumers to hate foreign go</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>['dan', 'hambahamba', 'tuhan', 'yang', 'maha', 'penyayang', 'itu', 'adalah', 'orang', 'yg', 'rendah', 'hati', 'amp', 'apabila', 'orang', 'jahil', 'menyapa', 'mereka']</t>
+          <t>['rt', 'while', 'jokowi', 'pursues', 'supposed', 'big', 'bang', 'foreign', 'investment', 'reforms', 'hes', 'telling', 'indonesian', 'consumers', 'to', 'hate', 'foreign', 'go']</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
+          <t>['rt', 'ketika', 'jokowi', 'pursues', 'supposed', 'besar', 'bang', 'foreign', 'investment', 'reforms', 'hes', 'telling', 'indonesia', 'consumers', 'to', 'hate', 'foreign', 'go']</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>['hambahamba', 'tuhan', 'maha', 'penyayang', 'orang', 'rendah', 'hati', 'orang', 'jahil', 'menyapa']</t>
-        </is>
-      </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>['hambahamba', 'tuhan', 'maha', 'sayang', 'orang', 'rendah', 'hati', 'orang', 'jahil', 'sapa']</t>
+          <t>['jokowi', 'pursues', 'supposed', 'bang', 'foreign', 'investment', 'reforms', 'hes', 'telling', 'indonesia', 'consumers', 'to', 'hate', 'foreign', 'go']</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>['jokowi', 'pursues', 'supposed', 'bang', 'foreign', 'investment', 'reforms', 'hes', 'telling', 'indonesia', 'consumers', 'to', 'hate', 'foreign', 'go']</t>
         </is>
       </c>
     </row>
@@ -3927,34 +4412,39 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>16641</v>
+        <v>27409</v>
       </c>
       <c r="C98" t="n">
-        <v>207</v>
+        <v>323</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>mereka yg ada di garda depan agar genangan di lingkungan kita lekas surut bravo petugas</t>
+          <t>rt knftraa lembaga riset yougov yang berbasis di inggris merilis daftarkota tersehatdi dunia dari penilaian ituibu kota dki</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>['mereka', 'yg', 'ada', 'di', 'garda', 'depan', 'agar', 'genangan', 'di', 'lingkungan', 'kita', 'lekas', 'surut', 'bravo', 'petugas']</t>
+          <t>['rt', 'knftraa', 'lembaga', 'riset', 'yougov', 'yang', 'berbasis', 'di', 'inggris', 'merilis', 'daftarkota', 'tersehatdi', 'dunia', 'dari', 'penilaian', 'ituibu', 'kota', 'dki']</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
+          <t>['rt', 'knftraa', 'lembaga', 'riset', 'yougov', 'yang', 'berbasis', 'di', 'inggris', 'merilis', 'daftarkota', 'tersehatdi', 'dunia', 'dari', 'penilaian', 'ituibu', 'kota', 'daerah, khusus, ibukota']</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>['garda', 'genangan', 'lingkungan', 'lekas', 'surut', 'bravo', 'petugas']</t>
+          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>['garda', 'genang', 'lingkung', 'lekas', 'surut', 'bravo', 'tugas']</t>
+          <t>['knftraa', 'lembaga', 'riset', 'yougov', 'berbasis', 'inggris', 'merilis', 'daftarkota', 'tersehatdi', 'dunia', 'penilaian', 'ituibu', 'kota', 'daerah, khusus, ibukota']</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>['knftraa', 'lembaga', 'riset', 'yougov', 'bas', 'inggris', 'rilis', 'daftarkota', 'tersehatdi', 'dunia', 'nilai', 'ituibu', 'kota', 'daerah khusus ibukota']</t>
         </is>
       </c>
     </row>
@@ -3963,34 +4453,39 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>16642</v>
+        <v>27410</v>
       </c>
       <c r="C99" t="n">
-        <v>207</v>
+        <v>323</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>rt anies kirim surat apresiasi ke pengelola aliran air pengelola aliran air kerja saudara tak tampak tapi manfaatnya</t>
+          <t>serius ini yg mau diserahkan pada asing utk eksplorasi benci produk ln</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>['rt', 'anies', 'kirim', 'surat', 'apresiasi', 'ke', 'pengelola', 'aliran', 'air', 'pengelola', 'aliran', 'air', 'kerja', 'saudara', 'tak', 'tampak', 'tapi', 'manfaatnya']</t>
+          <t>['serius', 'ini', 'yg', 'mau', 'diserahkan', 'pada', 'asing', 'utk', 'eksplorasi', 'benci', 'produk', 'ln']</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 18 outcomes&gt;</t>
+          <t>['serius', 'ini', 'yang', 'mau', 'diserahkan', 'pada', 'asing', 'untuk', 'eksplorasi', 'benci', 'produk', 'ln']</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>['anies', 'kirim', 'surat', 'apresiasi', 'pengelola', 'aliran', 'air', 'pengelola', 'aliran', 'air', 'kerja', 'saudara', 'manfaatnya']</t>
+          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>['anies', 'kirim', 'surat', 'apresiasi', 'kelola', 'alir', 'air', 'kelola', 'alir', 'air', 'kerja', 'saudara', 'manfaat']</t>
+          <t>['serius', 'diserahkan', 'asing', 'eksplorasi', 'benci', 'produk', 'ln']</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>['serius', 'serah', 'asing', 'eksplorasi', 'benci', 'produk', 'ln']</t>
         </is>
       </c>
     </row>
@@ -3999,34 +4494,80 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>16643</v>
+        <v>27411</v>
       </c>
       <c r="C100" t="n">
-        <v>207</v>
+        <v>323</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>wujud kepedulian pemprov dki terhadap teman penyandang disabilitas</t>
+          <t>penilaiannya mgk begini kampanye benci produk ln nilai kampanye cinta produk dn nilai kebijakan proteksi</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>['wujud', 'kepedulian', 'pemprov', 'dki', 'terhadap', 'teman', 'penyandang', 'disabilitas']</t>
+          <t>['penilaiannya', 'mgk', 'begini', 'kampanye', 'benci', 'produk', 'ln', 'nilai', 'kampanye', 'cinta', 'produk', 'dn', 'nilai', 'kebijakan', 'proteksi']</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>['penilaiannya', 'mungkin', 'begini', 'kampanye', 'benci', 'produk', 'ln', 'nilai', 'kampanye', 'cinta', 'produk', 'dan', 'nilai', 'kebijakan', 'proteksi']</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>['wujud', 'kepedulian', 'pemprov', 'dki', 'teman', 'penyandang', 'disabilitas']</t>
+          <t>&lt;FreqDist with 12 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>['wujud', 'peduli', 'pemprov', 'dki', 'teman', 'sandang', 'disabilitas']</t>
+          <t>['penilaiannya', 'kampanye', 'benci', 'produk', 'ln', 'nilai', 'kampanye', 'cinta', 'produk', 'nilai', 'kebijakan', 'proteksi']</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>['nilai', 'kampanye', 'benci', 'produk', 'ln', 'nilai', 'kampanye', 'cinta', 'produk', 'nilai', 'bijak', 'proteksi']</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>27412</v>
+      </c>
+      <c r="C101" t="n">
+        <v>323</v>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>dwy barangkali komentarnya sblm ada pertemuan dg gubernur tp media baru memuat</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>['dwy', 'barangkali', 'komentarnya', 'sblm', 'ada', 'pertemuan', 'dg', 'gubernur', 'tp', 'media', 'baru', 'memuat']</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>['dwy', 'barangkali', 'komentarnya', 'sebelum', 'ada', 'pertemuan', 'dengan', 'gubernur', 'tetapi', 'media', 'baru', 'memuat']</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>['dwy', 'barangkali', 'komentarnya', 'pertemuan', 'gubernur', 'media', 'memuat']</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>['dwy', 'barangkali', 'komentar', 'temu', 'gubernur', 'media', 'muat']</t>
         </is>
       </c>
     </row>
